--- a/data/hotels_by_city/Denver/Denver_shard_223.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_223.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="340">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g29144-d1117951-Reviews-Red_Lion_Inn_Suites_Denver_Airport-Aurora_Colorado.html</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Red-Lion-Inn-Suites-Denver-Airport.h41991.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,907 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r581764072-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>29144</t>
+  </si>
+  <si>
+    <t>1117951</t>
+  </si>
+  <si>
+    <t>581764072</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I booked this hotel last minute because I was attending a personal growth seminar that ended early on Sunday, and my flight didn’t leave until Monday at 4pm. So, I wanted simple, affordable hotel close to the airport to relax before my flight. I didn’t know what to expect from Red Lion, as I am not familiar with the area, but I have to say..I was pleasantly surprised and I had a great experience there! This little hotel offers things that larger, more expensive hotels I’ve stayed at do not. The front desk employees were all very pleasant and polite, smiling and asking me how I was. The room was clean, bed was comfortable, the mounted, flat screen tv was HUGE, and it even had a small refrigerator and microwave in the room! I watched HBO, took a hot shower, and ordered sushi from a nearby restaurant that delivered right to my door. Free continental breakfast was decent, and I got a free shuttle to the airport. I honestly couldn’t ask for anything more, and was very happy with my stay at Red Lion. I will definitely be staying there again in the future when I visit Colorado and need to be near the airport. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>reginalexingtondia, Guest Relations Manager at Red Lion Inn, responded to this reviewResponded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2018</t>
+  </si>
+  <si>
+    <t>I booked this hotel last minute because I was attending a personal growth seminar that ended early on Sunday, and my flight didn’t leave until Monday at 4pm. So, I wanted simple, affordable hotel close to the airport to relax before my flight. I didn’t know what to expect from Red Lion, as I am not familiar with the area, but I have to say..I was pleasantly surprised and I had a great experience there! This little hotel offers things that larger, more expensive hotels I’ve stayed at do not. The front desk employees were all very pleasant and polite, smiling and asking me how I was. The room was clean, bed was comfortable, the mounted, flat screen tv was HUGE, and it even had a small refrigerator and microwave in the room! I watched HBO, took a hot shower, and ordered sushi from a nearby restaurant that delivered right to my door. Free continental breakfast was decent, and I got a free shuttle to the airport. I honestly couldn’t ask for anything more, and was very happy with my stay at Red Lion. I will definitely be staying there again in the future when I visit Colorado and need to be near the airport. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r571470463-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>571470463</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Excellent location near the intersection of Airport Road and I-70, not far from DIA and the Medical Complex in Aurora. Clean rooms and friendly staff. Letty was particularly helpful at the front desk. Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>reginalexingtondia, Guest Relations Manager at Red Lion Inn, responded to this reviewResponded April 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2018</t>
+  </si>
+  <si>
+    <t>Excellent location near the intersection of Airport Road and I-70, not far from DIA and the Medical Complex in Aurora. Clean rooms and friendly staff. Letty was particularly helpful at the front desk. Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r568194062-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>568194062</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Airlines messed up flights</t>
+  </si>
+  <si>
+    <t>Letty the girl who's working the front desk did a superb job checking all of us in and helping me get my room. I realized after that my hygiene was not with me she help me with that as well and then made sure I made the shuttle to get back to the airport. She went Far and Beyond her job.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Letty the girl who's working the front desk did a superb job checking all of us in and helping me get my room. I realized after that my hygiene was not with me she help me with that as well and then made sure I made the shuttle to get back to the airport. She went Far and Beyond her job.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r560279977-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>560279977</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>Great staff!</t>
+  </si>
+  <si>
+    <t>The staff is so friendly here! Definitely felt at home :)I love the renovations they're making with the place. I can't wait to see what it will look like in a few months when I come back!It's a little out of the way, but their shuttle can take you to all the big stores nearby, which is great for staying close to the airport. Had to fly out early the next day.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>reginalexingtondia, Guest Relations Manager at Red Lion Inn, responded to this reviewResponded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2018</t>
+  </si>
+  <si>
+    <t>The staff is so friendly here! Definitely felt at home :)I love the renovations they're making with the place. I can't wait to see what it will look like in a few months when I come back!It's a little out of the way, but their shuttle can take you to all the big stores nearby, which is great for staying close to the airport. Had to fly out early the next day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r559632154-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>559632154</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t>ongoing rennovation</t>
+  </si>
+  <si>
+    <t>The ongoing renovation of this property keeps things messy &amp; dirty. The rooms are ok but the rest is just tolerable for the price. The breakfast is just OK and they are in a hurry to clean up at 9 so don't be late.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>The ongoing renovation of this property keeps things messy &amp; dirty. The rooms are ok but the rest is just tolerable for the price. The breakfast is just OK and they are in a hurry to clean up at 9 so don't be late.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r555919591-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>555919591</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
+    <t>Good parking package</t>
+  </si>
+  <si>
+    <t>We got a good price for a park, sleep, fly deal. The room was clean and comfortable. The noise on the first floor was a bit of an issue. Walls are pretty thin. Free breakfast was available even though it was to early to be official breakfast hours. Prompt shuttle service to and from DIA. Just stayed one night, so not sure about other amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>reginalexingtondia, Public Relations Manager at Red Lion Inn, responded to this reviewResponded January 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2018</t>
+  </si>
+  <si>
+    <t>We got a good price for a park, sleep, fly deal. The room was clean and comfortable. The noise on the first floor was a bit of an issue. Walls are pretty thin. Free breakfast was available even though it was to early to be official breakfast hours. Prompt shuttle service to and from DIA. Just stayed one night, so not sure about other amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r550310013-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>550310013</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>Fantastic Staff, Decent Rooms, Fair Price</t>
+  </si>
+  <si>
+    <t>We spent a night at the Red Lion before we left on a 2 week trip. Online was misleading about free parking. We decided to call the hotel directly to inquire about the long term parking. We spoke with Levi and he was able to offer us an all-in-one package, where parking was included with the room rate at a discounted rate. We were extremely happy with the offer and all the amenities.  The hotel had a wonderful breakfast the morning we departed. The setup included waffles, bacon, eggs and the standard items of a continental breakfast, which was more than adequate. The shuttle leaves once and hour and runs every hour which was great. It was a straight shot to DIA.  The only complaint we had about the shuttle was we had to wait 30 minutes for pickup, but it was because the hotel had to do the hourly dropoff in the morning, which was understandable. When my family returned to the hotel we had a dead battery, since the car had been sitting in the cold for 2 weeks. Levi immediately insisted on helping us push the car out of the parking spot so he could help us jump-start the battery. While all the hotels in the area offer the same park and ride packages, I will probably be coming back to the Red Lion every time I travel purely because of Levi and the customer service from...We spent a night at the Red Lion before we left on a 2 week trip. Online was misleading about free parking. We decided to call the hotel directly to inquire about the long term parking. We spoke with Levi and he was able to offer us an all-in-one package, where parking was included with the room rate at a discounted rate. We were extremely happy with the offer and all the amenities.  The hotel had a wonderful breakfast the morning we departed. The setup included waffles, bacon, eggs and the standard items of a continental breakfast, which was more than adequate. The shuttle leaves once and hour and runs every hour which was great. It was a straight shot to DIA.  The only complaint we had about the shuttle was we had to wait 30 minutes for pickup, but it was because the hotel had to do the hourly dropoff in the morning, which was understandable. When my family returned to the hotel we had a dead battery, since the car had been sitting in the cold for 2 weeks. Levi immediately insisted on helping us push the car out of the parking spot so he could help us jump-start the battery. While all the hotels in the area offer the same park and ride packages, I will probably be coming back to the Red Lion every time I travel purely because of Levi and the customer service from everyone. It made be an older hotel but the staff beats any 5 star hotel in the area, hands down!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>We spent a night at the Red Lion before we left on a 2 week trip. Online was misleading about free parking. We decided to call the hotel directly to inquire about the long term parking. We spoke with Levi and he was able to offer us an all-in-one package, where parking was included with the room rate at a discounted rate. We were extremely happy with the offer and all the amenities.  The hotel had a wonderful breakfast the morning we departed. The setup included waffles, bacon, eggs and the standard items of a continental breakfast, which was more than adequate. The shuttle leaves once and hour and runs every hour which was great. It was a straight shot to DIA.  The only complaint we had about the shuttle was we had to wait 30 minutes for pickup, but it was because the hotel had to do the hourly dropoff in the morning, which was understandable. When my family returned to the hotel we had a dead battery, since the car had been sitting in the cold for 2 weeks. Levi immediately insisted on helping us push the car out of the parking spot so he could help us jump-start the battery. While all the hotels in the area offer the same park and ride packages, I will probably be coming back to the Red Lion every time I travel purely because of Levi and the customer service from...We spent a night at the Red Lion before we left on a 2 week trip. Online was misleading about free parking. We decided to call the hotel directly to inquire about the long term parking. We spoke with Levi and he was able to offer us an all-in-one package, where parking was included with the room rate at a discounted rate. We were extremely happy with the offer and all the amenities.  The hotel had a wonderful breakfast the morning we departed. The setup included waffles, bacon, eggs and the standard items of a continental breakfast, which was more than adequate. The shuttle leaves once and hour and runs every hour which was great. It was a straight shot to DIA.  The only complaint we had about the shuttle was we had to wait 30 minutes for pickup, but it was because the hotel had to do the hourly dropoff in the morning, which was understandable. When my family returned to the hotel we had a dead battery, since the car had been sitting in the cold for 2 weeks. Levi immediately insisted on helping us push the car out of the parking spot so he could help us jump-start the battery. While all the hotels in the area offer the same park and ride packages, I will probably be coming back to the Red Lion every time I travel purely because of Levi and the customer service from everyone. It made be an older hotel but the staff beats any 5 star hotel in the area, hands down!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r549628774-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>549628774</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>Great staff.  Clean rooms.  Common areas in need of restoration.</t>
+  </si>
+  <si>
+    <t>Staff was great.  Place needs updating but for the price who can complain.  Standard continental breakfast.  Before you complain about trouble finding a parking spot, all of the hotels in the Aurora area right around the airport are exactly the same.  I got irritated for years before I figured out they all have the same problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff was great.  Place needs updating but for the price who can complain.  Standard continental breakfast.  Before you complain about trouble finding a parking spot, all of the hotels in the Aurora area right around the airport are exactly the same.  I got irritated for years before I figured out they all have the same problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r548689708-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>548689708</t>
+  </si>
+  <si>
+    <t>12/22/2017</t>
+  </si>
+  <si>
+    <t>EXTREMELY OUTDATED</t>
+  </si>
+  <si>
+    <t>The pictures we saw on web page is far from the truth. It's outdated, smells dingy inside the room, and small. The swimming area is next to the breakfast dinning with huge windows which made hot tub and a swim in the morning feel like a fish bowl very uncomfortable people staring at our SEXY bodies ! Terrible stayMoreShow less</t>
+  </si>
+  <si>
+    <t>The pictures we saw on web page is far from the truth. It's outdated, smells dingy inside the room, and small. The swimming area is next to the breakfast dinning with huge windows which made hot tub and a swim in the morning feel like a fish bowl very uncomfortable people staring at our SEXY bodies ! Terrible stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r536288045-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>536288045</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>GREAT STAY</t>
+  </si>
+  <si>
+    <t>After checking in with my pregnant wife and 6 month old son we began to realize how up to date the hotel was from the outside in, the lobby looks like it was just painted and was also decorated with Colorado memorabilia  which was absolutely impressive, the pool was very clean and also heated, the vending machines where fully stocked with a large selections to choose from which made it 20 times easier to get snacks for my wife's cravings, the shuttle driver was very nice and also offered to drive us to a local restaurant to get dinner later that night, not to mention how comfy the room was, the bed was very relaxing along with up to date refrigerators and microwaves, I could have sworn the hotel was built a day before we got there, it was just so new and clean. I would recommend anyone to stay here. great staff, great rooms, awesome breakfast, if there was a grade higher than an A plus that would be given to this red lion. every time my family is in town we will definitely stay here no matter what the price is.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>reginalexingtondia, Director of Sales at Red Lion Inn, responded to this reviewResponded November 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2017</t>
+  </si>
+  <si>
+    <t>After checking in with my pregnant wife and 6 month old son we began to realize how up to date the hotel was from the outside in, the lobby looks like it was just painted and was also decorated with Colorado memorabilia  which was absolutely impressive, the pool was very clean and also heated, the vending machines where fully stocked with a large selections to choose from which made it 20 times easier to get snacks for my wife's cravings, the shuttle driver was very nice and also offered to drive us to a local restaurant to get dinner later that night, not to mention how comfy the room was, the bed was very relaxing along with up to date refrigerators and microwaves, I could have sworn the hotel was built a day before we got there, it was just so new and clean. I would recommend anyone to stay here. great staff, great rooms, awesome breakfast, if there was a grade higher than an A plus that would be given to this red lion. every time my family is in town we will definitely stay here no matter what the price is.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r536016470-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>536016470</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>One night</t>
+  </si>
+  <si>
+    <t>The van drivers and the check in staff were friendly and provided great customer service.  Breakfast was good. Room was ok clean comfortable bed but room could use some remodeling. No coffee maker in room wish there would have been one. Overall stay was ok I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>The van drivers and the check in staff were friendly and provided great customer service.  Breakfast was good. Room was ok clean comfortable bed but room could use some remodeling. No coffee maker in room wish there would have been one. Overall stay was ok I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r526372520-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>526372520</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Quick overnight stay for an early flight</t>
+  </si>
+  <si>
+    <t>This hotel was something else before the Red Lion brand. Had a damp odor in the hallway and room. Looked like it was under renovation but not much going on. Definitely better choices near the airport. Too far to walk to restaurants, so had to use room service.MoreShow less</t>
+  </si>
+  <si>
+    <t>reginalexingtondia, Guest Relations Manager at Red Lion Inn, responded to this reviewResponded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was something else before the Red Lion brand. Had a damp odor in the hallway and room. Looked like it was under renovation but not much going on. Definitely better choices near the airport. Too far to walk to restaurants, so had to use room service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r516502200-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>516502200</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Conveniently located</t>
+  </si>
+  <si>
+    <t>This was our first stop on an 11 day road trip to California.  The hotel was clean and well appointed.  Rooms were comfortable and the breakfast offered was more than adequate.  If you were feeling energetic there are a number of eateries closeby - luckily the hotel does offer a shuttle service.  The same shuttle service was offered from the airport and while it did take an inordinately long time to arrive, once it did it was a quick and friendly drive to the hotel.  Concierge staff were efficient and our check-in (13 people) was handled quickly and professionally.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>reginalexingtondia, Front Office Manager at Red Lion Inn, responded to this reviewResponded September 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2017</t>
+  </si>
+  <si>
+    <t>This was our first stop on an 11 day road trip to California.  The hotel was clean and well appointed.  Rooms were comfortable and the breakfast offered was more than adequate.  If you were feeling energetic there are a number of eateries closeby - luckily the hotel does offer a shuttle service.  The same shuttle service was offered from the airport and while it did take an inordinately long time to arrive, once it did it was a quick and friendly drive to the hotel.  Concierge staff were efficient and our check-in (13 people) was handled quickly and professionally.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r515353104-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>515353104</t>
+  </si>
+  <si>
+    <t>08/19/2017</t>
+  </si>
+  <si>
+    <t>Servicable</t>
+  </si>
+  <si>
+    <t>Motel is serviceable.  Rooms were clean and location was good.  Staff very accommodating.   Typical roadside motel.   Would stay again when in Aurora for the rate if nothing else. Nothing fancy just a place to shower and sleep while in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Motel is serviceable.  Rooms were clean and location was good.  Staff very accommodating.   Typical roadside motel.   Would stay again when in Aurora for the rate if nothing else. Nothing fancy just a place to shower and sleep while in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r511805328-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>511805328</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>Not a fan</t>
+  </si>
+  <si>
+    <t>I think one of the most important factors of a good hotel is the beds. Here the beds were decent but I would say that was the only thing that was okay. I know they are remodeling and they changed their name recently so hopefully that helps them in the future because the carpets in the halls were stained and dirty with crumbs and wrappers. Very old, rickety elevator and the sheets for the beds were old and worn.  MoreShow less</t>
+  </si>
+  <si>
+    <t>I think one of the most important factors of a good hotel is the beds. Here the beds were decent but I would say that was the only thing that was okay. I know they are remodeling and they changed their name recently so hopefully that helps them in the future because the carpets in the halls were stained and dirty with crumbs and wrappers. Very old, rickety elevator and the sheets for the beds were old and worn.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r501436349-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>501436349</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Very friendly and helpful staff. Would definitely recommend this hotel. Our room was very clean and they shuttled us to dinner and to the airport.  The staff went out of their way to accommodate our needsMoreShow less</t>
+  </si>
+  <si>
+    <t>reginalexingtondia, Director of Sales at Red Lion Inn, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Very friendly and helpful staff. Would definitely recommend this hotel. Our room was very clean and they shuttled us to dinner and to the airport.  The staff went out of their way to accommodate our needsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r499016667-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>499016667</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Perfect for what we needed.</t>
+  </si>
+  <si>
+    <t>I was a little hesitant to book here because of some negative reviews.  However, this hotel offered free 24 hour shuttle service and is also within walking distance (1.3 miles) of Enterprise car rental.  This was perfect for our late night arrival and saved us money by not renting a car from the airport.  I must say, everything worked out perfectly.  We called the hotel before our flight left Albany, NY, and were given instructions.  The man on the phone was a bit hard to understand.  We called from the Denver airport when we arrived late, around midnight.  The lady on the phone confirmed our booking and gave very helpful instructions on where to meet her and she arrived about 20 minutes later, exactly as she said she would.  We were taken to the hotel, and checked right in.  This was on July 4th, and they didn't seem busy, but we were impressed with the service on a holiday.
+This is an older hotel, and it appears they are doing some work on it and will be under a new name soon.  The room itself was average, but was clean and adequate.  The sheets and towels were a bit worn.  The beds in our room were jammed against the wall because there was a door to the adjoining room, but most rooms are probably not like that?  Overall the room was clean and fine for a quick overnight.  The room...I was a little hesitant to book here because of some negative reviews.  However, this hotel offered free 24 hour shuttle service and is also within walking distance (1.3 miles) of Enterprise car rental.  This was perfect for our late night arrival and saved us money by not renting a car from the airport.  I must say, everything worked out perfectly.  We called the hotel before our flight left Albany, NY, and were given instructions.  The man on the phone was a bit hard to understand.  We called from the Denver airport when we arrived late, around midnight.  The lady on the phone confirmed our booking and gave very helpful instructions on where to meet her and she arrived about 20 minutes later, exactly as she said she would.  We were taken to the hotel, and checked right in.  This was on July 4th, and they didn't seem busy, but we were impressed with the service on a holiday.This is an older hotel, and it appears they are doing some work on it and will be under a new name soon.  The room itself was average, but was clean and adequate.  The sheets and towels were a bit worn.  The beds in our room were jammed against the wall because there was a door to the adjoining room, but most rooms are probably not like that?  Overall the room was clean and fine for a quick overnight.  The room had a microwave and refrigerator.The Wi-Fi was fast.  Our room was close to the front desk, so that may have helped.Breakfast was actually topnotch with scrambled eggs and bacon, make your own waffles, etc.  As good as Holiday Inn Express where we usually stay.Overall the place was quiet - not crowded at all, and the staff we dealt with were helpful and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was a little hesitant to book here because of some negative reviews.  However, this hotel offered free 24 hour shuttle service and is also within walking distance (1.3 miles) of Enterprise car rental.  This was perfect for our late night arrival and saved us money by not renting a car from the airport.  I must say, everything worked out perfectly.  We called the hotel before our flight left Albany, NY, and were given instructions.  The man on the phone was a bit hard to understand.  We called from the Denver airport when we arrived late, around midnight.  The lady on the phone confirmed our booking and gave very helpful instructions on where to meet her and she arrived about 20 minutes later, exactly as she said she would.  We were taken to the hotel, and checked right in.  This was on July 4th, and they didn't seem busy, but we were impressed with the service on a holiday.
+This is an older hotel, and it appears they are doing some work on it and will be under a new name soon.  The room itself was average, but was clean and adequate.  The sheets and towels were a bit worn.  The beds in our room were jammed against the wall because there was a door to the adjoining room, but most rooms are probably not like that?  Overall the room was clean and fine for a quick overnight.  The room...I was a little hesitant to book here because of some negative reviews.  However, this hotel offered free 24 hour shuttle service and is also within walking distance (1.3 miles) of Enterprise car rental.  This was perfect for our late night arrival and saved us money by not renting a car from the airport.  I must say, everything worked out perfectly.  We called the hotel before our flight left Albany, NY, and were given instructions.  The man on the phone was a bit hard to understand.  We called from the Denver airport when we arrived late, around midnight.  The lady on the phone confirmed our booking and gave very helpful instructions on where to meet her and she arrived about 20 minutes later, exactly as she said she would.  We were taken to the hotel, and checked right in.  This was on July 4th, and they didn't seem busy, but we were impressed with the service on a holiday.This is an older hotel, and it appears they are doing some work on it and will be under a new name soon.  The room itself was average, but was clean and adequate.  The sheets and towels were a bit worn.  The beds in our room were jammed against the wall because there was a door to the adjoining room, but most rooms are probably not like that?  Overall the room was clean and fine for a quick overnight.  The room had a microwave and refrigerator.The Wi-Fi was fast.  Our room was close to the front desk, so that may have helped.Breakfast was actually topnotch with scrambled eggs and bacon, make your own waffles, etc.  As good as Holiday Inn Express where we usually stay.Overall the place was quiet - not crowded at all, and the staff we dealt with were helpful and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r497671178-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>497671178</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>Horrible Service</t>
+  </si>
+  <si>
+    <t>I had a coupon and I called them about my rate. They promised me that rate which I had on coupon even the night I checked in. They charged me double. I tried to explain them but they did not care. Front desk and shuttle was ok but management is too bad. I would not recommend this. MoreShow less</t>
+  </si>
+  <si>
+    <t>reginalexingtondia, Front Office Manager at Red Lion Inn, responded to this reviewResponded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>I had a coupon and I called them about my rate. They promised me that rate which I had on coupon even the night I checked in. They charged me double. I tried to explain them but they did not care. Front desk and shuttle was ok but management is too bad. I would not recommend this. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r495139010-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>495139010</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr Russell </t>
+  </si>
+  <si>
+    <t>Waited 1.5 hours for the shuttle, which never came. Had to spend an extra 30 for a cab to the hotel, where the clerk was too busy on the phone at 11:30 pm to help me. 10 minutes later, I got my key to a non smoking room that was not non smoking.  I spent two hundred dollars for one night of This?  I will never recommend this hotel and I will tell everyone I know to avoid it. I could have overlooked all of this with good customer service.   MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Waited 1.5 hours for the shuttle, which never came. Had to spend an extra 30 for a cab to the hotel, where the clerk was too busy on the phone at 11:30 pm to help me. 10 minutes later, I got my key to a non smoking room that was not non smoking.  I spent two hundred dollars for one night of This?  I will never recommend this hotel and I will tell everyone I know to avoid it. I could have overlooked all of this with good customer service.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r490394503-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>490394503</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Not Good</t>
+  </si>
+  <si>
+    <t>Hi. We spent one night at the Lexington for the stay and ride. The clientele were kind of scary and rough. The place is dark and dingy. The front desk clerk tried very hard, was overworked and frazzled. The hotel is not clean. Sticky surfaces, our phone cord had dried food on it and we were very uncomfortable but stayed as it was late and we had a very early flight. The airport shuttle was on time and driver very nice. Our daughter drove us from airport to hotel. I am glad after reading the poor reviews of the shuttle airport pick up. I will not stay again. LindaMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Hi. We spent one night at the Lexington for the stay and ride. The clientele were kind of scary and rough. The place is dark and dingy. The front desk clerk tried very hard, was overworked and frazzled. The hotel is not clean. Sticky surfaces, our phone cord had dried food on it and we were very uncomfortable but stayed as it was late and we had a very early flight. The airport shuttle was on time and driver very nice. Our daughter drove us from airport to hotel. I am glad after reading the poor reviews of the shuttle airport pick up. I will not stay again. LindaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r479851420-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>479851420</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>Terrible Service and Shuttle</t>
+  </si>
+  <si>
+    <t>So we have stayed here a few time because we use the park and ride service. The first time we stayed last year as we went on a trip to Alaska. We left our vehicle and then when we came back from our trip as soon as we got off the airplane we called for the shuttle service to pick up me and my son. We waited for the shuttle service for over 45 minutes at 3:00 in the morning. So we did use the Lexington again just a few days ago for our trip to Mexico. The night that we stayed there someone with the hotel staff was trying to wake up the person in the room next to us by banging on there door for 20 minutes. We finally opened the door and told them to stop. So we caught the shuttle to the airport and it was fine but then when we came back from our trip and called again as soon and we landed they said they would be right there to pick us up. It was pretty chilly outside and waited for 45 minutes and called them again. They said they came by and tried to call us which was not true it only took us about 8 minutes to get out of the airport. They said they would send them again and be there in a few minutes. So we continued to wait. After...So we have stayed here a few time because we use the park and ride service. The first time we stayed last year as we went on a trip to Alaska. We left our vehicle and then when we came back from our trip as soon as we got off the airplane we called for the shuttle service to pick up me and my son. We waited for the shuttle service for over 45 minutes at 3:00 in the morning. So we did use the Lexington again just a few days ago for our trip to Mexico. The night that we stayed there someone with the hotel staff was trying to wake up the person in the room next to us by banging on there door for 20 minutes. We finally opened the door and told them to stop. So we caught the shuttle to the airport and it was fine but then when we came back from our trip and called again as soon and we landed they said they would be right there to pick us up. It was pretty chilly outside and waited for 45 minutes and called them again. They said they came by and tried to call us which was not true it only took us about 8 minutes to get out of the airport. They said they would send them again and be there in a few minutes. So we continued to wait. After an hour we called the third time and they could not believe that no one had picked us up yet. Finally after waiting for an hour and a half we paid for a $40.00 taxi ride to get back to the hotel. I called and wanted a supervisor and one has not seemed to have the time to call me back. Me and my family had another trip scheduled in the next couple of weeks and you bet I canceled my rooms here and found one that can give me better service. I know because there shuttle came around 5 times in the hour and half that I got to sit and wait.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>reginalexingtondia, Director of Sales at Red Lion Inn, responded to this reviewResponded May 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2017</t>
+  </si>
+  <si>
+    <t>So we have stayed here a few time because we use the park and ride service. The first time we stayed last year as we went on a trip to Alaska. We left our vehicle and then when we came back from our trip as soon as we got off the airplane we called for the shuttle service to pick up me and my son. We waited for the shuttle service for over 45 minutes at 3:00 in the morning. So we did use the Lexington again just a few days ago for our trip to Mexico. The night that we stayed there someone with the hotel staff was trying to wake up the person in the room next to us by banging on there door for 20 minutes. We finally opened the door and told them to stop. So we caught the shuttle to the airport and it was fine but then when we came back from our trip and called again as soon and we landed they said they would be right there to pick us up. It was pretty chilly outside and waited for 45 minutes and called them again. They said they came by and tried to call us which was not true it only took us about 8 minutes to get out of the airport. They said they would send them again and be there in a few minutes. So we continued to wait. After...So we have stayed here a few time because we use the park and ride service. The first time we stayed last year as we went on a trip to Alaska. We left our vehicle and then when we came back from our trip as soon as we got off the airplane we called for the shuttle service to pick up me and my son. We waited for the shuttle service for over 45 minutes at 3:00 in the morning. So we did use the Lexington again just a few days ago for our trip to Mexico. The night that we stayed there someone with the hotel staff was trying to wake up the person in the room next to us by banging on there door for 20 minutes. We finally opened the door and told them to stop. So we caught the shuttle to the airport and it was fine but then when we came back from our trip and called again as soon and we landed they said they would be right there to pick us up. It was pretty chilly outside and waited for 45 minutes and called them again. They said they came by and tried to call us which was not true it only took us about 8 minutes to get out of the airport. They said they would send them again and be there in a few minutes. So we continued to wait. After an hour we called the third time and they could not believe that no one had picked us up yet. Finally after waiting for an hour and a half we paid for a $40.00 taxi ride to get back to the hotel. I called and wanted a supervisor and one has not seemed to have the time to call me back. Me and my family had another trip scheduled in the next couple of weeks and you bet I canceled my rooms here and found one that can give me better service. I know because there shuttle came around 5 times in the hour and half that I got to sit and wait.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r467907330-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>467907330</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>Skip this pl;ace</t>
+  </si>
+  <si>
+    <t>We stood at the curb waiting for our airport pickup for over an hour.  It took two phone calls to get the driver! In the morning, the airport runs are once an hour and the first two occur before they open up for breakfast. If you have an early flight, you go without food.  Rooms were fine but halls were pretty noisy at midnight.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>We stood at the curb waiting for our airport pickup for over an hour.  It took two phone calls to get the driver! In the morning, the airport runs are once an hour and the first two occur before they open up for breakfast. If you have an early flight, you go without food.  Rooms were fine but halls were pretty noisy at midnight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r466638080-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>466638080</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Mrs. Christina Frameless</t>
+  </si>
+  <si>
+    <t>The Lexington in and suites in Aurora Colorado was by far one of my best experiences in a long long time. The hotel staff went beyond there call of duty,especially two employees, Fabshop / Sizzler and WildWilly/Double D I believe were their names. Simply outstanding.   Thank you, Mrs.Christina Frameless   Evanston WyomingMoreShow less</t>
+  </si>
+  <si>
+    <t>The Lexington in and suites in Aurora Colorado was by far one of my best experiences in a long long time. The hotel staff went beyond there call of duty,especially two employees, Fabshop / Sizzler and WildWilly/Double D I believe were their names. Simply outstanding.   Thank you, Mrs.Christina Frameless   Evanston WyomingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r465103477-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>465103477</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>Run down smelly rooms</t>
+  </si>
+  <si>
+    <t>This hotel switched me to 3 different rooms due to 1 having a broken toilet. All 3 stunk like cigarette smoke and marijuana in non smoking rooms. Breakfast was good. Only one computer without a printer. Bed was uncomfortable and sheets were dingy and stained.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>This hotel switched me to 3 different rooms due to 1 having a broken toilet. All 3 stunk like cigarette smoke and marijuana in non smoking rooms. Breakfast was good. Only one computer without a printer. Bed was uncomfortable and sheets were dingy and stained.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r456456201-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>456456201</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>Good pit stop</t>
+  </si>
+  <si>
+    <t>Had an overnight layover in denver . This was one of the hotels reasonably priced and had free airport shuttle among other popular amenities. TV ok.Staff was extremely hospitable. Beds and shower were good.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2017</t>
+  </si>
+  <si>
+    <t>Had an overnight layover in denver . This was one of the hotels reasonably priced and had free airport shuttle among other popular amenities. TV ok.Staff was extremely hospitable. Beds and shower were good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r451257828-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>451257828</t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>Going down hill fast</t>
+  </si>
+  <si>
+    <t>Unfortunately, I have to write a similar review to the one I just read on bad management.  We have stayed here for years, but the new owner Jason simply does not care. We paid for stay and fly package which includes shuttle. The shuttle was down and they called a private service which they made us pay for.  I agreed because the owner said he would credit our return stay on our way home.  They booked our return stay on the wrong day and charged us, which they did credit us for, then booked on the right day for $40 more.  In short we paid $179 for stay and fly with shuttle service, then $50 for private shuttle and received 10% credit on $135 upon return which was $35 more than the $100 that they mistakenly booked for the wrong day (same room) so $13 credit when I paid $50 because they didn't provide shuttle which was included in the original $179.  This use to be operated by comfort Inn and we stayed every year for the past 5 years and always recommend to friends.  Unfortunately not anymore. There were also 2 other people complaining at the front desk when I was there about being charged more than expected.  Too bad, it used to be a convenient destination.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded January 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2017</t>
+  </si>
+  <si>
+    <t>Unfortunately, I have to write a similar review to the one I just read on bad management.  We have stayed here for years, but the new owner Jason simply does not care. We paid for stay and fly package which includes shuttle. The shuttle was down and they called a private service which they made us pay for.  I agreed because the owner said he would credit our return stay on our way home.  They booked our return stay on the wrong day and charged us, which they did credit us for, then booked on the right day for $40 more.  In short we paid $179 for stay and fly with shuttle service, then $50 for private shuttle and received 10% credit on $135 upon return which was $35 more than the $100 that they mistakenly booked for the wrong day (same room) so $13 credit when I paid $50 because they didn't provide shuttle which was included in the original $179.  This use to be operated by comfort Inn and we stayed every year for the past 5 years and always recommend to friends.  Unfortunately not anymore. There were also 2 other people complaining at the front desk when I was there about being charged more than expected.  Too bad, it used to be a convenient destination.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r446139951-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>446139951</t>
+  </si>
+  <si>
+    <t>12/22/2016</t>
+  </si>
+  <si>
+    <t>Needs Management Change</t>
+  </si>
+  <si>
+    <t>We've stayed here several times previously, but our most recent visit revealed a terrible drop in standards for the facility and its service.
+First, the front desk was not at all helpful or friendly during check in, and claimed they couldn't honor my request for a room on the top floor and away from the elevator; wrote that off to someone having a bad day and holiday travel bookings.  We found out later that the hotel was nowhere near full and the front desk gal was just being a jerk.  
+Next, as we approached the only elevator in the place, the cleaning staff bumped in front of us, quite purposefully, and filled the elevator with a huge cart and two employees, one jabbering away on a cell phone with not a care in the world, which forced us to stand and wait for the elevator to go up to the top floor and return.  Minor inconvenience-yes, but quite rude and totally unacceptable in a service industry.
+Shortly thereafter I called for a wake-up call and to double-check our airport shuttle departure time.  The front desk had completely lost our reservation and had no room on the shuttle for us, so we had to get up an hour earlier than necessary in order to have a shuttle to the airport.  This was inconceivable because our reservation was specifically for the "park and ride" option--how can anyone possibly screw that up??
+Since...We've stayed here several times previously, but our most recent visit revealed a terrible drop in standards for the facility and its service.First, the front desk was not at all helpful or friendly during check in, and claimed they couldn't honor my request for a room on the top floor and away from the elevator; wrote that off to someone having a bad day and holiday travel bookings.  We found out later that the hotel was nowhere near full and the front desk gal was just being a jerk.  Next, as we approached the only elevator in the place, the cleaning staff bumped in front of us, quite purposefully, and filled the elevator with a huge cart and two employees, one jabbering away on a cell phone with not a care in the world, which forced us to stand and wait for the elevator to go up to the top floor and return.  Minor inconvenience-yes, but quite rude and totally unacceptable in a service industry.Shortly thereafter I called for a wake-up call and to double-check our airport shuttle departure time.  The front desk had completely lost our reservation and had no room on the shuttle for us, so we had to get up an hour earlier than necessary in order to have a shuttle to the airport.  This was inconceivable because our reservation was specifically for the "park and ride" option--how can anyone possibly screw that up??Since we were forced to use a room mid-hallway on the second floor, we found that noise from above floors and out in the hallway was significant.  In addition, our room heater was in disrepair and rattled like it would fall off the wall every time the fan kicked on. We tried to mitigate noise by running the bathroom fan, but it is wired directly to the light with no separate switch, so we had to keep the door shut, which negated the "white noise" affect and so we suffered through a long night of stomping, door slamming and a rattling heater fan.The final straw was breakfast.  This place used to offer a decent breakfast as part of the room rate.  Our latest experience was horrible, beginning with no coffee.  No kidding--they had no coffee available.  We inquired with the front desk, and they eventually arranged to have some made, which came out just as our shuttle bus got the "last call" to get on.  Scrambled eggs were terribly overcooked and a plethora of guests were standing around waiting for another batch to be brought out--none ever came before our shuttle left.  We ate at the airport.Bottom line, this place needs a significant management change, some employees need serious training in guest services, a maintenance crew needs to go through the rooms, and the kitchen staff should be replaced.  This was a terrible experience and I would strongly recommend travelers look elsewhere for park &amp; ride options.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2017</t>
+  </si>
+  <si>
+    <t>We've stayed here several times previously, but our most recent visit revealed a terrible drop in standards for the facility and its service.
+First, the front desk was not at all helpful or friendly during check in, and claimed they couldn't honor my request for a room on the top floor and away from the elevator; wrote that off to someone having a bad day and holiday travel bookings.  We found out later that the hotel was nowhere near full and the front desk gal was just being a jerk.  
+Next, as we approached the only elevator in the place, the cleaning staff bumped in front of us, quite purposefully, and filled the elevator with a huge cart and two employees, one jabbering away on a cell phone with not a care in the world, which forced us to stand and wait for the elevator to go up to the top floor and return.  Minor inconvenience-yes, but quite rude and totally unacceptable in a service industry.
+Shortly thereafter I called for a wake-up call and to double-check our airport shuttle departure time.  The front desk had completely lost our reservation and had no room on the shuttle for us, so we had to get up an hour earlier than necessary in order to have a shuttle to the airport.  This was inconceivable because our reservation was specifically for the "park and ride" option--how can anyone possibly screw that up??
+Since...We've stayed here several times previously, but our most recent visit revealed a terrible drop in standards for the facility and its service.First, the front desk was not at all helpful or friendly during check in, and claimed they couldn't honor my request for a room on the top floor and away from the elevator; wrote that off to someone having a bad day and holiday travel bookings.  We found out later that the hotel was nowhere near full and the front desk gal was just being a jerk.  Next, as we approached the only elevator in the place, the cleaning staff bumped in front of us, quite purposefully, and filled the elevator with a huge cart and two employees, one jabbering away on a cell phone with not a care in the world, which forced us to stand and wait for the elevator to go up to the top floor and return.  Minor inconvenience-yes, but quite rude and totally unacceptable in a service industry.Shortly thereafter I called for a wake-up call and to double-check our airport shuttle departure time.  The front desk had completely lost our reservation and had no room on the shuttle for us, so we had to get up an hour earlier than necessary in order to have a shuttle to the airport.  This was inconceivable because our reservation was specifically for the "park and ride" option--how can anyone possibly screw that up??Since we were forced to use a room mid-hallway on the second floor, we found that noise from above floors and out in the hallway was significant.  In addition, our room heater was in disrepair and rattled like it would fall off the wall every time the fan kicked on. We tried to mitigate noise by running the bathroom fan, but it is wired directly to the light with no separate switch, so we had to keep the door shut, which negated the "white noise" affect and so we suffered through a long night of stomping, door slamming and a rattling heater fan.The final straw was breakfast.  This place used to offer a decent breakfast as part of the room rate.  Our latest experience was horrible, beginning with no coffee.  No kidding--they had no coffee available.  We inquired with the front desk, and they eventually arranged to have some made, which came out just as our shuttle bus got the "last call" to get on.  Scrambled eggs were terribly overcooked and a plethora of guests were standing around waiting for another batch to be brought out--none ever came before our shuttle left.  We ate at the airport.Bottom line, this place needs a significant management change, some employees need serious training in guest services, a maintenance crew needs to go through the rooms, and the kitchen staff should be replaced.  This was a terrible experience and I would strongly recommend travelers look elsewhere for park &amp; ride options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r444718137-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>444718137</t>
+  </si>
+  <si>
+    <t>12/16/2016</t>
+  </si>
+  <si>
+    <t>Could be a lot better</t>
+  </si>
+  <si>
+    <t>This hotel shows some age. In our bathroom there was a used cleaning latex glove on the floor...which does mean someone cleaned the bathroom....but not exactly what you want to see. The bathroom vent that turns on with the light made a horrible nails on chalkboard noise. Also this motel is next to a train track so be prepared for train noise all night.  The fridge in our room was lopsided. Beds weren't so great. Avoid the hot tub (which was the whole reason we chose this motel) !! It had so much chlorine in it that it literally caused my husband and myself I cough and gag and caused our eyes to water and sting. Never been in a hot tub that smelled like pure bleach. Pool was VERY cold....says its heated but not much. Didn't get to try breakfast...maybe that was this motels redeeming grace.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel shows some age. In our bathroom there was a used cleaning latex glove on the floor...which does mean someone cleaned the bathroom....but not exactly what you want to see. The bathroom vent that turns on with the light made a horrible nails on chalkboard noise. Also this motel is next to a train track so be prepared for train noise all night.  The fridge in our room was lopsided. Beds weren't so great. Avoid the hot tub (which was the whole reason we chose this motel) !! It had so much chlorine in it that it literally caused my husband and myself I cough and gag and caused our eyes to water and sting. Never been in a hot tub that smelled like pure bleach. Pool was VERY cold....says its heated but not much. Didn't get to try breakfast...maybe that was this motels redeeming grace.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r443329155-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>443329155</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>Near Airport</t>
+  </si>
+  <si>
+    <t>Check-in and out were convenient. You are able to park free right outside of your room. Room had a microwave and refrigerator. Restaurants are closeby by car, Very easy to return to the airport and avoid the toll road. Good value for the money.  The breakfast was advertised as Continental but was actually a full breakfast and was complimentary.MoreShow less</t>
+  </si>
+  <si>
+    <t>Check-in and out were convenient. You are able to park free right outside of your room. Room had a microwave and refrigerator. Restaurants are closeby by car, Very easy to return to the airport and avoid the toll road. Good value for the money.  The breakfast was advertised as Continental but was actually a full breakfast and was complimentary.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r442753999-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>442753999</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>Clean economy hotel by airport</t>
+  </si>
+  <si>
+    <t>This was a very good value for the price. Its not fancy but it's clean and the staff was excellent. Very friendly and helpful. There is a very nice free breakfast and free airport shuttle. We drove in from the mountains the night before our flight as bad weather was coming. This hotel was very accommodating and got us right where we needed to be. Don't stay here for fun because there are no restaurants or activities really nearby but it's perfect for the airport and very affordable!MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt W, Manager at Red Lion Inn, responded to this reviewResponded December 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2016</t>
+  </si>
+  <si>
+    <t>This was a very good value for the price. Its not fancy but it's clean and the staff was excellent. Very friendly and helpful. There is a very nice free breakfast and free airport shuttle. We drove in from the mountains the night before our flight as bad weather was coming. This hotel was very accommodating and got us right where we needed to be. Don't stay here for fun because there are no restaurants or activities really nearby but it's perfect for the airport and very affordable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r432545688-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>432545688</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t>Has airport shuttle</t>
+  </si>
+  <si>
+    <t>Mixed feelings about our stay here.  The bed was comfortable (king) but room was rather shabby.  It did have a mini frig and microwave which is nice. We learned that the hotel is under new ownership and renovations and cleaning underway. Much more needs addressing.  Hall carpet clean but stairwell carpet was absolutely filthy.   Breakfast just okay but adequate.   They offer a free airport shuttle once an hour on the hour and have 2 shuttles if there's a large number of riders.   Until they finish improvements I suggest checking out other airport hotels.  It was expensive for what was offered. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Matt W, Assistant GM at Red Lion Inn, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Mixed feelings about our stay here.  The bed was comfortable (king) but room was rather shabby.  It did have a mini frig and microwave which is nice. We learned that the hotel is under new ownership and renovations and cleaning underway. Much more needs addressing.  Hall carpet clean but stairwell carpet was absolutely filthy.   Breakfast just okay but adequate.   They offer a free airport shuttle once an hour on the hour and have 2 shuttles if there's a large number of riders.   Until they finish improvements I suggest checking out other airport hotels.  It was expensive for what was offered. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r429903001-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>429903001</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Not worth the price...</t>
+  </si>
+  <si>
+    <t>Beds were hard. Stains on wash cloths. Luckily, I was only needing the room for the night since I had a long lay over/early flight departure. I paid over $100 and this room definitely not worth that much. The front desk was curtious but not helpful. Very basic service from the staff but not bad either. If you can get this room for much less than $100, then you would get what you pay for.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Beds were hard. Stains on wash cloths. Luckily, I was only needing the room for the night since I had a long lay over/early flight departure. I paid over $100 and this room definitely not worth that much. The front desk was curtious but not helpful. Very basic service from the staff but not bad either. If you can get this room for much less than $100, then you would get what you pay for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r428033720-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>428033720</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>Not Disabled-Friendly</t>
+  </si>
+  <si>
+    <t>We stayed here on a road trip and had been "guaranteed" a roll in shower for my husband who is a paraplegic. When we arrived they put us in a regular room that he could barely get to a bed. We asked the man at the front desk if he knew of our reservation to which he answered "yes, and I saw the request in the notes, but I gave that room away". No apologies, no trying to help us. Just plain rude. Rooms are not well maintained and the "heated" pool was far from that.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here on a road trip and had been "guaranteed" a roll in shower for my husband who is a paraplegic. When we arrived they put us in a regular room that he could barely get to a bed. We asked the man at the front desk if he knew of our reservation to which he answered "yes, and I saw the request in the notes, but I gave that room away". No apologies, no trying to help us. Just plain rude. Rooms are not well maintained and the "heated" pool was far from that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r414729244-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>414729244</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Spend your money somewhere else</t>
+  </si>
+  <si>
+    <t>Hotel isn't terrible but for the price and with so many options close by that are comparably priced you would be wise to spend your money on other hotels in this area. The staff is friendly but you can tell guest are not their highest priority. Only one coin operated washer and dryer and both were out of order. M&amp;M on the floor in my room so I can be sure it was not vacuumed or at least thoroughly vacuumed. It is obvious that ownership is not investing in maintaining property properly. Many other hotels in this price range are much better. No restaurants other than McDs and a Dennys within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Matt W, Assistant General Manager at Red Lion Inn, responded to this reviewResponded September 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2016</t>
+  </si>
+  <si>
+    <t>Hotel isn't terrible but for the price and with so many options close by that are comparably priced you would be wise to spend your money on other hotels in this area. The staff is friendly but you can tell guest are not their highest priority. Only one coin operated washer and dryer and both were out of order. M&amp;M on the floor in my room so I can be sure it was not vacuumed or at least thoroughly vacuumed. It is obvious that ownership is not investing in maintaining property properly. Many other hotels in this price range are much better. No restaurants other than McDs and a Dennys within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r409930539-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>409930539</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Not an option for solo traveler</t>
+  </si>
+  <si>
+    <t>1: shuttle only runs every hour so it wasn't practical to use for a morning flight2: homeless guy in the lobby kept trying to talk to me. Wow. 3:  not sure HOW this place is listed as 2.5 stars However, after being bothered at check in, I can't say I wandered around to check out the facilities. MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt W, Assistant General Manager at Red Lion Inn, responded to this reviewResponded August 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2016</t>
+  </si>
+  <si>
+    <t>1: shuttle only runs every hour so it wasn't practical to use for a morning flight2: homeless guy in the lobby kept trying to talk to me. Wow. 3:  not sure HOW this place is listed as 2.5 stars However, after being bothered at check in, I can't say I wandered around to check out the facilities. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r407338915-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>407338915</t>
+  </si>
+  <si>
+    <t>08/19/2016</t>
+  </si>
+  <si>
+    <t>Hanging Out</t>
+  </si>
+  <si>
+    <t>The hotel was convenient to the airport and Denver; although, it was difficult to find. My son and I were taking a break together between his Summer camps and I was looking for a hotel big enough for us but not too expensive. The Lexington was okay, but more expensive than I thought it should be.  I found the staff to be nice. The breakfasts were okay. The beds were not very firm, but okay. The room was clean and everything worked, but it was a bit worn. Overall, just average to me.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>The hotel was convenient to the airport and Denver; although, it was difficult to find. My son and I were taking a break together between his Summer camps and I was looking for a hotel big enough for us but not too expensive. The Lexington was okay, but more expensive than I thought it should be.  I found the staff to be nice. The breakfasts were okay. The beds were not very firm, but okay. The room was clean and everything worked, but it was a bit worn. Overall, just average to me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r401878947-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>401878947</t>
+  </si>
+  <si>
+    <t>08/05/2016</t>
+  </si>
+  <si>
+    <t>Nice place and people</t>
+  </si>
+  <si>
+    <t>The Lexington was better than expected. I found all staff to be very helpful. The beds were very comfortable. The room was spotless as was the rest of the hotel. Its also nice to have airport transportation, however a car would be helpful as it is a lot of flat land. I would certainly return.MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt W, Assistant General Manager at Red Lion Inn, responded to this reviewResponded August 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2016</t>
+  </si>
+  <si>
+    <t>The Lexington was better than expected. I found all staff to be very helpful. The beds were very comfortable. The room was spotless as was the rest of the hotel. Its also nice to have airport transportation, however a car would be helpful as it is a lot of flat land. I would certainly return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r399816759-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>399816759</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>Great for overnight before flight.</t>
+  </si>
+  <si>
+    <t>We stayed one before a 6 am flight.  Didn't get to experience the full breakfast but the 4am shuttle driver made sure that we at least got an apple, yogurt, and a drink. Shuttle driver was very nice.  I thought the staff was great, the check in was smooth, she let us check in at 2 pm instead of 4 pm, she gave us directions to the restaurant.  The maid was very helpful in getting us extra pillows.  We had some family members come and visit us the night before we left and the staff let us use the breakfast room to play cards and eat pizza.  The pool and hot tub were very clean.  We slept great, no issues with traffic noise or other guests.  The blinder shades were a little hard to find at first but since I have stayed in other hotels, I knew to look for them.The only issues that I had were the carpet definitely needs replacement, the bathroom door is falling off the hinge (easy fix), and there was an occasional smell of weed in the hallway.  We stayed in room 109.  It was equipped with direct tv, a microwave, a mini fridge, and 2 queen beds that were very comfortable.  The pillows are very small, so ask for extras as soon as you get there, they run out quickly.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed one before a 6 am flight.  Didn't get to experience the full breakfast but the 4am shuttle driver made sure that we at least got an apple, yogurt, and a drink. Shuttle driver was very nice.  I thought the staff was great, the check in was smooth, she let us check in at 2 pm instead of 4 pm, she gave us directions to the restaurant.  The maid was very helpful in getting us extra pillows.  We had some family members come and visit us the night before we left and the staff let us use the breakfast room to play cards and eat pizza.  The pool and hot tub were very clean.  We slept great, no issues with traffic noise or other guests.  The blinder shades were a little hard to find at first but since I have stayed in other hotels, I knew to look for them.The only issues that I had were the carpet definitely needs replacement, the bathroom door is falling off the hinge (easy fix), and there was an occasional smell of weed in the hallway.  We stayed in room 109.  It was equipped with direct tv, a microwave, a mini fridge, and 2 queen beds that were very comfortable.  The pillows are very small, so ask for extras as soon as you get there, they run out quickly.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1439,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1471,2463 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>95</v>
+      </c>
+      <c r="X9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>78</v>
+      </c>
+      <c r="X10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>123</v>
+      </c>
+      <c r="X11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" t="s">
+        <v>132</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>123</v>
+      </c>
+      <c r="X12" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" t="s">
+        <v>148</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>157</v>
+      </c>
+      <c r="O15" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>149</v>
+      </c>
+      <c r="X15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>157</v>
+      </c>
+      <c r="O16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>149</v>
+      </c>
+      <c r="X16" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>170</v>
+      </c>
+      <c r="X17" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" t="s">
+        <v>175</v>
+      </c>
+      <c r="K18" t="s">
+        <v>176</v>
+      </c>
+      <c r="L18" t="s">
+        <v>177</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>147</v>
+      </c>
+      <c r="O18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>170</v>
+      </c>
+      <c r="X18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>147</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>184</v>
+      </c>
+      <c r="X19" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" t="s">
+        <v>191</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>184</v>
+      </c>
+      <c r="X20" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>199</v>
+      </c>
+      <c r="O21" t="s">
+        <v>94</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>184</v>
+      </c>
+      <c r="X21" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" t="s">
+        <v>204</v>
+      </c>
+      <c r="L22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>206</v>
+      </c>
+      <c r="O22" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>207</v>
+      </c>
+      <c r="X22" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>211</v>
+      </c>
+      <c r="J23" t="s">
+        <v>212</v>
+      </c>
+      <c r="K23" t="s">
+        <v>213</v>
+      </c>
+      <c r="L23" t="s">
+        <v>214</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>215</v>
+      </c>
+      <c r="O23" t="s">
+        <v>94</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>216</v>
+      </c>
+      <c r="X23" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>219</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>220</v>
+      </c>
+      <c r="J24" t="s">
+        <v>221</v>
+      </c>
+      <c r="K24" t="s">
+        <v>222</v>
+      </c>
+      <c r="L24" t="s">
+        <v>223</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>215</v>
+      </c>
+      <c r="O24" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>216</v>
+      </c>
+      <c r="X24" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>226</v>
+      </c>
+      <c r="J25" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" t="s">
+        <v>228</v>
+      </c>
+      <c r="L25" t="s">
+        <v>229</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>215</v>
+      </c>
+      <c r="O25" t="s">
+        <v>86</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>230</v>
+      </c>
+      <c r="X25" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>233</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>234</v>
+      </c>
+      <c r="J26" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" t="s">
+        <v>236</v>
+      </c>
+      <c r="L26" t="s">
+        <v>237</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>238</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>239</v>
+      </c>
+      <c r="X26" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>243</v>
+      </c>
+      <c r="J27" t="s">
+        <v>244</v>
+      </c>
+      <c r="K27" t="s">
+        <v>245</v>
+      </c>
+      <c r="L27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>247</v>
+      </c>
+      <c r="O27" t="s">
+        <v>86</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>248</v>
+      </c>
+      <c r="X27" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>251</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>252</v>
+      </c>
+      <c r="J28" t="s">
+        <v>253</v>
+      </c>
+      <c r="K28" t="s">
+        <v>254</v>
+      </c>
+      <c r="L28" t="s">
+        <v>255</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>256</v>
+      </c>
+      <c r="O28" t="s">
+        <v>86</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>257</v>
+      </c>
+      <c r="X28" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>260</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>261</v>
+      </c>
+      <c r="J29" t="s">
+        <v>262</v>
+      </c>
+      <c r="K29" t="s">
+        <v>263</v>
+      </c>
+      <c r="L29" t="s">
+        <v>264</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>256</v>
+      </c>
+      <c r="O29" t="s">
+        <v>94</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>257</v>
+      </c>
+      <c r="X29" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>266</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>267</v>
+      </c>
+      <c r="J30" t="s">
+        <v>268</v>
+      </c>
+      <c r="K30" t="s">
+        <v>269</v>
+      </c>
+      <c r="L30" t="s">
+        <v>270</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>257</v>
+      </c>
+      <c r="X30" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>272</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>273</v>
+      </c>
+      <c r="J31" t="s">
+        <v>274</v>
+      </c>
+      <c r="K31" t="s">
+        <v>275</v>
+      </c>
+      <c r="L31" t="s">
+        <v>276</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>256</v>
+      </c>
+      <c r="O31" t="s">
+        <v>148</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>277</v>
+      </c>
+      <c r="X31" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>281</v>
+      </c>
+      <c r="J32" t="s">
+        <v>282</v>
+      </c>
+      <c r="K32" t="s">
+        <v>283</v>
+      </c>
+      <c r="L32" t="s">
+        <v>284</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>285</v>
+      </c>
+      <c r="O32" t="s">
+        <v>94</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>286</v>
+      </c>
+      <c r="X32" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>289</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>290</v>
+      </c>
+      <c r="J33" t="s">
+        <v>291</v>
+      </c>
+      <c r="K33" t="s">
+        <v>292</v>
+      </c>
+      <c r="L33" t="s">
+        <v>293</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>294</v>
+      </c>
+      <c r="O33" t="s">
+        <v>86</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>286</v>
+      </c>
+      <c r="X33" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>296</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>297</v>
+      </c>
+      <c r="J34" t="s">
+        <v>298</v>
+      </c>
+      <c r="K34" t="s">
+        <v>299</v>
+      </c>
+      <c r="L34" t="s">
+        <v>300</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>285</v>
+      </c>
+      <c r="O34" t="s">
+        <v>86</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>286</v>
+      </c>
+      <c r="X34" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>302</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>303</v>
+      </c>
+      <c r="J35" t="s">
+        <v>304</v>
+      </c>
+      <c r="K35" t="s">
+        <v>305</v>
+      </c>
+      <c r="L35" t="s">
+        <v>306</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>307</v>
+      </c>
+      <c r="O35" t="s">
+        <v>132</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>308</v>
+      </c>
+      <c r="X35" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>311</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>312</v>
+      </c>
+      <c r="J36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K36" t="s">
+        <v>314</v>
+      </c>
+      <c r="L36" t="s">
+        <v>315</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>294</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>316</v>
+      </c>
+      <c r="X36" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>319</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>320</v>
+      </c>
+      <c r="J37" t="s">
+        <v>321</v>
+      </c>
+      <c r="K37" t="s">
+        <v>322</v>
+      </c>
+      <c r="L37" t="s">
+        <v>323</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>324</v>
+      </c>
+      <c r="O37" t="s">
+        <v>86</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>316</v>
+      </c>
+      <c r="X37" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>326</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>327</v>
+      </c>
+      <c r="J38" t="s">
+        <v>328</v>
+      </c>
+      <c r="K38" t="s">
+        <v>329</v>
+      </c>
+      <c r="L38" t="s">
+        <v>330</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>294</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>331</v>
+      </c>
+      <c r="X38" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>334</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>335</v>
+      </c>
+      <c r="J39" t="s">
+        <v>336</v>
+      </c>
+      <c r="K39" t="s">
+        <v>337</v>
+      </c>
+      <c r="L39" t="s">
+        <v>338</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>324</v>
+      </c>
+      <c r="O39" t="s">
+        <v>86</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>331</v>
+      </c>
+      <c r="X39" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_223.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_223.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="527">
   <si>
     <t>STR#</t>
   </si>
@@ -147,18 +147,114 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/04/2018</t>
+    <t>09/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r613197257-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>29144</t>
+  </si>
+  <si>
+    <t>1117951</t>
+  </si>
+  <si>
+    <t>613197257</t>
+  </si>
+  <si>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>Below Average but remodeling</t>
+  </si>
+  <si>
+    <t>Exterior clean, good location, hot breakfast of powdered eggs, waffles, a little fruit, nothing special but not as bad as it could've been. Staff was friendly, especially Lettie who went out of her way to help us with Priceline issue. Negatives: old room microwave didn't work, our floor under remodel with tools, blue tape, construction debris in halls/stairs, washer out of order, ATM out of order. Big Safety Concern: rear door permanently unlocked even though sign said it should be locked for security purposes.</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r605847389-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>605847389</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>Good enough for us</t>
+  </si>
+  <si>
+    <t>Needed a quick place to stay after a late night flight to Denver was delayed and our luggage and rental car took forever. Found this hotel and we got the sleep we needed. Nothing incredibly fancy but good enough for our family.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r605621319-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>605621319</t>
+  </si>
+  <si>
+    <t>Very helpful!</t>
+  </si>
+  <si>
+    <t>Very pleased. I booked this hotel for relatives who don't travel much. The hotel was very accomodating when they requested last minute airport pick up. The hotel happily stepped up and promptly picked them up. A employee also followed up with me to let me know. I appreciate their willingness to assist. My relatives liked the hotel for the 1 night they stayed. Free parking and continental breakfast were a plus.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r594170557-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>594170557</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>OK sleep, park and ride</t>
+  </si>
+  <si>
+    <t>Stayed the night before a early morning flight, and parked for 5 weeks. The room was clean, but worn. The front desk was helpful. Parking was tight and had to park in the drive  The shuttle to the airport was good and direct. Had to wait 35 minutes for pickup on the return, but again a direct drive to the car.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>reginalexingtondia, Guest Relations Manager at Red Lion Inn, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Stayed the night before a early morning flight, and parked for 5 weeks. The room was clean, but worn. The front desk was helpful. Parking was tight and had to park in the drive  The shuttle to the airport was good and direct. Had to wait 35 minutes for pickup on the return, but again a direct drive to the car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r594088137-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>594088137</t>
+  </si>
+  <si>
+    <t>Not Really a Gateway Park Hotel</t>
+  </si>
+  <si>
+    <t>We came to this hotel through ParkSleepFly.com.  From the Gateway Park identification and description, we kind of expected it to be on par with other hotels at Gateway Park.  It definitely was not.  Red Lion is a solid 1.5 star hotel.  If you're looking for that, it's clean enough to get by.If you were expecting somewhere decent to stay, prompt service from the shuttle, or being in the airport Gateway Park area, you're likely to be disappointed.  The shuttle was a particularly harrowing experience.  They drove too fast on the way out and were too slow coming in.MoreShow less</t>
+  </si>
+  <si>
+    <t>We came to this hotel through ParkSleepFly.com.  From the Gateway Park identification and description, we kind of expected it to be on par with other hotels at Gateway Park.  It definitely was not.  Red Lion is a solid 1.5 star hotel.  If you're looking for that, it's clean enough to get by.If you were expecting somewhere decent to stay, prompt service from the shuttle, or being in the airport Gateway Park area, you're likely to be disappointed.  The shuttle was a particularly harrowing experience.  They drove too fast on the way out and were too slow coming in.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r581764072-Red_Lion_Inn-Aurora_Colorado.html</t>
   </si>
   <si>
-    <t>29144</t>
-  </si>
-  <si>
-    <t>1117951</t>
-  </si>
-  <si>
     <t>581764072</t>
   </si>
   <si>
@@ -234,6 +330,48 @@
     <t>Letty the girl who's working the front desk did a superb job checking all of us in and helping me get my room. I realized after that my hygiene was not with me she help me with that as well and then made sure I made the shuttle to get back to the airport. She went Far and Beyond her job.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r568182193-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>568182193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful place and AMAZING service </t>
+  </si>
+  <si>
+    <t>We pulled into Denver Wednesday and I called and talked to the front desk person (David).  He was very polite on the phone, but when we got there to get our room, David way more the polite, he was what I would look for when going in to get a room.  He remembered how he talked to and even remembered the deals he made on the phone.  I would recommend this to anybody who what’s a great room and treated with respect.  David, thank you so much for a great experience, at an affordable price.MoreShow less</t>
+  </si>
+  <si>
+    <t>We pulled into Denver Wednesday and I called and talked to the front desk person (David).  He was very polite on the phone, but when we got there to get our room, David way more the polite, he was what I would look for when going in to get a room.  He remembered how he talked to and even remembered the deals he made on the phone.  I would recommend this to anybody who what’s a great room and treated with respect.  David, thank you so much for a great experience, at an affordable price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r564044715-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>564044715</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Pretty nice, clean, and friendly staff</t>
+  </si>
+  <si>
+    <t>My sons and had a nice 2 day stay here.  Didn't spend much time at the hotel, but everything seemed good to us.  The front desk people were helpful and nice, the room was clean, breakfast fine.  We did have an issue where they thought we were checking out after 1 day - no idea why, but they resolved it...  Odd.  Still, i'd stay there again.  Very convenient to the airport and to the train into Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>reginalexingtondia, Guest Relations Manager at Red Lion Inn, responded to this reviewResponded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2018</t>
+  </si>
+  <si>
+    <t>My sons and had a nice 2 day stay here.  Didn't spend much time at the hotel, but everything seemed good to us.  The front desk people were helpful and nice, the room was clean, breakfast fine.  We did have an issue where they thought we were checking out after 1 day - no idea why, but they resolved it...  Odd.  Still, i'd stay there again.  Very convenient to the airport and to the train into Denver.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r560279977-Red_Lion_Inn-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -249,15 +387,6 @@
     <t>The staff is so friendly here! Definitely felt at home :)I love the renovations they're making with the place. I can't wait to see what it will look like in a few months when I come back!It's a little out of the way, but their shuttle can take you to all the big stores nearby, which is great for staying close to the airport. Had to fly out early the next day.MoreShow less</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
-    <t>reginalexingtondia, Guest Relations Manager at Red Lion Inn, responded to this reviewResponded March 8, 2018</t>
-  </si>
-  <si>
-    <t>Responded March 8, 2018</t>
-  </si>
-  <si>
     <t>The staff is so friendly here! Definitely felt at home :)I love the renovations they're making with the place. I can't wait to see what it will look like in a few months when I come back!It's a little out of the way, but their shuttle can take you to all the big stores nearby, which is great for staying close to the airport. Had to fly out early the next day.More</t>
   </si>
   <si>
@@ -276,9 +405,6 @@
     <t>The ongoing renovation of this property keeps things messy &amp; dirty. The rooms are ok but the rest is just tolerable for the price. The breakfast is just OK and they are in a hurry to clean up at 9 so don't be late.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>The ongoing renovation of this property keeps things messy &amp; dirty. The rooms are ok but the rest is just tolerable for the price. The breakfast is just OK and they are in a hurry to clean up at 9 so don't be late.More</t>
   </si>
   <si>
@@ -300,9 +426,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>reginalexingtondia, Public Relations Manager at Red Lion Inn, responded to this reviewResponded January 29, 2018</t>
   </si>
   <si>
@@ -312,6 +435,54 @@
     <t>We got a good price for a park, sleep, fly deal. The room was clean and comfortable. The noise on the first floor was a bit of an issue. Walls are pretty thin. Free breakfast was available even though it was to early to be official breakfast hours. Prompt shuttle service to and from DIA. Just stayed one night, so not sure about other amenities.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r555589489-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>555589489</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Going Down Hill</t>
+  </si>
+  <si>
+    <t>My family has visited this Hotel for many years now each January with the stock show. However in the last 3 years, this place has been going down hill quickly. The breakfast that comes with our stay is very cheap. their waffle iron is "temporarily out of service". so all you have to eat is cereal, plain yougurt, or an assortment of bread, bagels or muffins. The pool room was closed all but the last night of our stay. We went in to try it and the hot tub was barely warmer than bath water. We were very dissapointed. Our room had an adjoining door to another room in it which we heard all of the converstions/crying baby all night long. On top of that there were people running up and down the halls and some very sketch people wandering around with the smell of pot eminating from their rooms. Unfortunately we will be moving to a new hotel next year as this year was the last straw on their long road downhillMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>reginalexingtondia, Guest Relations Manager at Red Lion Inn, responded to this reviewResponded February 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2018</t>
+  </si>
+  <si>
+    <t>My family has visited this Hotel for many years now each January with the stock show. However in the last 3 years, this place has been going down hill quickly. The breakfast that comes with our stay is very cheap. their waffle iron is "temporarily out of service". so all you have to eat is cereal, plain yougurt, or an assortment of bread, bagels or muffins. The pool room was closed all but the last night of our stay. We went in to try it and the hot tub was barely warmer than bath water. We were very dissapointed. Our room had an adjoining door to another room in it which we heard all of the converstions/crying baby all night long. On top of that there were people running up and down the halls and some very sketch people wandering around with the smell of pot eminating from their rooms. Unfortunately we will be moving to a new hotel next year as this year was the last straw on their long road downhillMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r551116759-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>551116759</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>Nice for a short trip</t>
+  </si>
+  <si>
+    <t>This is a nice place for a short trip. It's close to the airport.Rooms are good size and clean. Breakfast is adequate.Avoid rooms right next to the elevators if you are a light sleeper, as it's a bit noisy.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>This is a nice place for a short trip. It's close to the airport.Rooms are good size and clean. Breakfast is adequate.Avoid rooms right next to the elevators if you are a light sleeper, as it's a bit noisy.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r550310013-Red_Lion_Inn-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -327,9 +498,6 @@
     <t>We spent a night at the Red Lion before we left on a 2 week trip. Online was misleading about free parking. We decided to call the hotel directly to inquire about the long term parking. We spoke with Levi and he was able to offer us an all-in-one package, where parking was included with the room rate at a discounted rate. We were extremely happy with the offer and all the amenities.  The hotel had a wonderful breakfast the morning we departed. The setup included waffles, bacon, eggs and the standard items of a continental breakfast, which was more than adequate. The shuttle leaves once and hour and runs every hour which was great. It was a straight shot to DIA.  The only complaint we had about the shuttle was we had to wait 30 minutes for pickup, but it was because the hotel had to do the hourly dropoff in the morning, which was understandable. When my family returned to the hotel we had a dead battery, since the car had been sitting in the cold for 2 weeks. Levi immediately insisted on helping us push the car out of the parking spot so he could help us jump-start the battery. While all the hotels in the area offer the same park and ride packages, I will probably be coming back to the Red Lion every time I travel purely because of Levi and the customer service from...We spent a night at the Red Lion before we left on a 2 week trip. Online was misleading about free parking. We decided to call the hotel directly to inquire about the long term parking. We spoke with Levi and he was able to offer us an all-in-one package, where parking was included with the room rate at a discounted rate. We were extremely happy with the offer and all the amenities.  The hotel had a wonderful breakfast the morning we departed. The setup included waffles, bacon, eggs and the standard items of a continental breakfast, which was more than adequate. The shuttle leaves once and hour and runs every hour which was great. It was a straight shot to DIA.  The only complaint we had about the shuttle was we had to wait 30 minutes for pickup, but it was because the hotel had to do the hourly dropoff in the morning, which was understandable. When my family returned to the hotel we had a dead battery, since the car had been sitting in the cold for 2 weeks. Levi immediately insisted on helping us push the car out of the parking spot so he could help us jump-start the battery. While all the hotels in the area offer the same park and ride packages, I will probably be coming back to the Red Lion every time I travel purely because of Levi and the customer service from everyone. It made be an older hotel but the staff beats any 5 star hotel in the area, hands down!!MoreShow less</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
     <t>We spent a night at the Red Lion before we left on a 2 week trip. Online was misleading about free parking. We decided to call the hotel directly to inquire about the long term parking. We spoke with Levi and he was able to offer us an all-in-one package, where parking was included with the room rate at a discounted rate. We were extremely happy with the offer and all the amenities.  The hotel had a wonderful breakfast the morning we departed. The setup included waffles, bacon, eggs and the standard items of a continental breakfast, which was more than adequate. The shuttle leaves once and hour and runs every hour which was great. It was a straight shot to DIA.  The only complaint we had about the shuttle was we had to wait 30 minutes for pickup, but it was because the hotel had to do the hourly dropoff in the morning, which was understandable. When my family returned to the hotel we had a dead battery, since the car had been sitting in the cold for 2 weeks. Levi immediately insisted on helping us push the car out of the parking spot so he could help us jump-start the battery. While all the hotels in the area offer the same park and ride packages, I will probably be coming back to the Red Lion every time I travel purely because of Levi and the customer service from...We spent a night at the Red Lion before we left on a 2 week trip. Online was misleading about free parking. We decided to call the hotel directly to inquire about the long term parking. We spoke with Levi and he was able to offer us an all-in-one package, where parking was included with the room rate at a discounted rate. We were extremely happy with the offer and all the amenities.  The hotel had a wonderful breakfast the morning we departed. The setup included waffles, bacon, eggs and the standard items of a continental breakfast, which was more than adequate. The shuttle leaves once and hour and runs every hour which was great. It was a straight shot to DIA.  The only complaint we had about the shuttle was we had to wait 30 minutes for pickup, but it was because the hotel had to do the hourly dropoff in the morning, which was understandable. When my family returned to the hotel we had a dead battery, since the car had been sitting in the cold for 2 weeks. Levi immediately insisted on helping us push the car out of the parking spot so he could help us jump-start the battery. While all the hotels in the area offer the same park and ride packages, I will probably be coming back to the Red Lion every time I travel purely because of Levi and the customer service from everyone. It made be an older hotel but the staff beats any 5 star hotel in the area, hands down!!More</t>
   </si>
   <si>
@@ -369,6 +537,57 @@
     <t>The pictures we saw on web page is far from the truth. It's outdated, smells dingy inside the room, and small. The swimming area is next to the breakfast dinning with huge windows which made hot tub and a swim in the morning feel like a fish bowl very uncomfortable people staring at our SEXY bodies ! Terrible stayMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r540734036-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>540734036</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>While the hotel is not a fancy luxury hotel, when one is looking for a reasonably priced hotel for a night en route to the airport, this fits the bill. I was particularly impressed with Levi who went above and beyond, helping me with tech questions on my new IPhone. The shuttle driver Blanca was very pleasant also. Good price, clean, VERY nice people.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>reginalexingtondia, Director of Sales at Red Lion Inn, responded to this reviewResponded November 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2017</t>
+  </si>
+  <si>
+    <t>While the hotel is not a fancy luxury hotel, when one is looking for a reasonably priced hotel for a night en route to the airport, this fits the bill. I was particularly impressed with Levi who went above and beyond, helping me with tech questions on my new IPhone. The shuttle driver Blanca was very pleasant also. Good price, clean, VERY nice people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r537549188-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>537549188</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>Stay at Denver Airport Red Lion Inn</t>
+  </si>
+  <si>
+    <t>I have not stayed at a Red Lion for a number of yrs but room was very nice, comfortable.  I got a good night sleep on a good, firm mattress and front desk staff, as well as breakfast attendant, were outstanding, superb!  The shuttle driver said he would be to airport in 20 mins to pick me up and he wasn't a minute late.  Right on time and VERY FRIENDLY!  Definitely a customer service guy!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I have not stayed at a Red Lion for a number of yrs but room was very nice, comfortable.  I got a good night sleep on a good, firm mattress and front desk staff, as well as breakfast attendant, were outstanding, superb!  The shuttle driver said he would be to airport in 20 mins to pick me up and he wasn't a minute late.  Right on time and VERY FRIENDLY!  Definitely a customer service guy!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r536288045-Red_Lion_Inn-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -387,12 +606,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t>reginalexingtondia, Director of Sales at Red Lion Inn, responded to this reviewResponded November 26, 2017</t>
-  </si>
-  <si>
-    <t>Responded November 26, 2017</t>
-  </si>
-  <si>
     <t>After checking in with my pregnant wife and 6 month old son we began to realize how up to date the hotel was from the outside in, the lobby looks like it was just painted and was also decorated with Colorado memorabilia  which was absolutely impressive, the pool was very clean and also heated, the vending machines where fully stocked with a large selections to choose from which made it 20 times easier to get snacks for my wife's cravings, the shuttle driver was very nice and also offered to drive us to a local restaurant to get dinner later that night, not to mention how comfy the room was, the bed was very relaxing along with up to date refrigerators and microwaves, I could have sworn the hotel was built a day before we got there, it was just so new and clean. I would recommend anyone to stay here. great staff, great rooms, awesome breakfast, if there was a grade higher than an A plus that would be given to this red lion. every time my family is in town we will definitely stay here no matter what the price is.More</t>
   </si>
   <si>
@@ -411,12 +624,6 @@
     <t>The van drivers and the check in staff were friendly and provided great customer service.  Breakfast was good. Room was ok clean comfortable bed but room could use some remodeling. No coffee maker in room wish there would have been one. Overall stay was ok I would stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>The van drivers and the check in staff were friendly and provided great customer service.  Breakfast was good. Room was ok clean comfortable bed but room could use some remodeling. No coffee maker in room wish there would have been one. Overall stay was ok I would stay here again.More</t>
   </si>
   <si>
@@ -444,6 +651,51 @@
     <t>This hotel was something else before the Red Lion brand. Had a damp odor in the hallway and room. Looked like it was under renovation but not much going on. Definitely better choices near the airport. Too far to walk to restaurants, so had to use room service.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r524650538-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>524650538</t>
+  </si>
+  <si>
+    <t>09/15/2017</t>
+  </si>
+  <si>
+    <t>Cheap but would give it a pass next time</t>
+  </si>
+  <si>
+    <t>Just needed a hotel for a few hours because we had to check out of our first hotel by 3PM and we had a late night flight.  Glad it was only for a few hours because they had no hot water, and no air conditioning.  We lost power totally for a brief moment as well.  It had a frig and was relatively clean.  I guess there was some problem or some work that the city was doing - not sure.  In any event, we got no discount on our bill.  Would try another airport hotel next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>reginalexingtondia, Guest Relations Manager at Red Lion Inn, responded to this reviewResponded September 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2017</t>
+  </si>
+  <si>
+    <t>Just needed a hotel for a few hours because we had to check out of our first hotel by 3PM and we had a late night flight.  Glad it was only for a few hours because they had no hot water, and no air conditioning.  We lost power totally for a brief moment as well.  It had a frig and was relatively clean.  I guess there was some problem or some work that the city was doing - not sure.  In any event, we got no discount on our bill.  Would try another airport hotel next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r523774986-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>523774986</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>Don't stay here unless you have to</t>
+  </si>
+  <si>
+    <t>I stayed at this MOTEL (not hotel) after the recent "renovation". I thought that it would be better and disregarded the recent reviews, thinking that since it was recently renovated, things would be better than the reviews. Smh. Don't stay here unless you have to.The pros. The shuttle is good. The driver was nice. Pick up is on demand, you just call the number and they give you an estimated arrival time (mine was 20mins). But going back to the airport, the shuttle leaves only once an hour at the top of the hour. But they run like clockwork. The staff is friendly. There's a fridge, microwave and new television in each room. Parking was fine, you just put a decal on your windshield. Wifi was free and strong. The cons. The comforter was stained with blood, the pillows are threadbare, the pillow cases were stainedthe bedskirt was stained. The light fixtures and furniture are old, dirty and damaged. There were mystery stains on the carpet and on the walls. The wallpaper is peeling. The door jams are rusted.The shower was dingy and the fixtures need to be updated. The whole place needs to be re-renovated. The clientele was sketchy looking. A/C had Lucky Charms inside it. Worth $69 a night.MoreShow less</t>
+  </si>
+  <si>
+    <t>reginalexingtondia, Public Relations Manager at Red Lion Inn, responded to this reviewResponded September 20, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this MOTEL (not hotel) after the recent "renovation". I thought that it would be better and disregarded the recent reviews, thinking that since it was recently renovated, things would be better than the reviews. Smh. Don't stay here unless you have to.The pros. The shuttle is good. The driver was nice. Pick up is on demand, you just call the number and they give you an estimated arrival time (mine was 20mins). But going back to the airport, the shuttle leaves only once an hour at the top of the hour. But they run like clockwork. The staff is friendly. There's a fridge, microwave and new television in each room. Parking was fine, you just put a decal on your windshield. Wifi was free and strong. The cons. The comforter was stained with blood, the pillows are threadbare, the pillow cases were stainedthe bedskirt was stained. The light fixtures and furniture are old, dirty and damaged. There were mystery stains on the carpet and on the walls. The wallpaper is peeling. The door jams are rusted.The shower was dingy and the fixtures need to be updated. The whole place needs to be re-renovated. The clientele was sketchy looking. A/C had Lucky Charms inside it. Worth $69 a night.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r516502200-Red_Lion_Inn-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -462,9 +714,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>reginalexingtondia, Front Office Manager at Red Lion Inn, responded to this reviewResponded September 9, 2017</t>
   </si>
   <si>
@@ -511,6 +760,48 @@
   </si>
   <si>
     <t>I think one of the most important factors of a good hotel is the beds. Here the beds were decent but I would say that was the only thing that was okay. I know they are remodeling and they changed their name recently so hopefully that helps them in the future because the carpets in the halls were stained and dirty with crumbs and wrappers. Very old, rickety elevator and the sheets for the beds were old and worn.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r502611569-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>502611569</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Avoid This Hotel</t>
+  </si>
+  <si>
+    <t>On the plus side, the actual room was decent and the lady at reception was friendly and helpful. Otherwise, this is a tired, run-down property currently being renovated and was grossly overpriced for the condition it's in. They made us place a parking permit on the dashboard of the car and there were dire warnings about being towed otherwise which just added to the feeling that this is a dicey part of town to be in. Most of the other customers at breakfast looked like the sub-Motel 6 crowd. I would not stay there again (and would not have stayed there in the first place if anything else in the area had been available that night).MoreShow less</t>
+  </si>
+  <si>
+    <t>reginalexingtondia, Director of Sales at Red Lion Inn, responded to this reviewResponded August 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2017</t>
+  </si>
+  <si>
+    <t>On the plus side, the actual room was decent and the lady at reception was friendly and helpful. Otherwise, this is a tired, run-down property currently being renovated and was grossly overpriced for the condition it's in. They made us place a parking permit on the dashboard of the car and there were dire warnings about being towed otherwise which just added to the feeling that this is a dicey part of town to be in. Most of the other customers at breakfast looked like the sub-Motel 6 crowd. I would not stay there again (and would not have stayed there in the first place if anything else in the area had been available that night).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r502404321-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>502404321</t>
+  </si>
+  <si>
+    <t>Home away from jome</t>
+  </si>
+  <si>
+    <t>I stayed here for a total of 2 weeks including the weekend in between and they truly made my stay like being home. I don't travel for work much so being away from my family was hard after a bit. Staff is beyond friendly and very accommodating, free breakfast is decent at best, my room was clean and comfortable. At one point, I ran out of work clothes and asked if there was a self serve laundromat nearby and their washer was actually down for service. A staff member was then beyond generous enough to not only clean them there in their commercial units but folded all of my clothes for me! I was well taken care of and would always recommend this hotel for future stays. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for a total of 2 weeks including the weekend in between and they truly made my stay like being home. I don't travel for work much so being away from my family was hard after a bit. Staff is beyond friendly and very accommodating, free breakfast is decent at best, my room was clean and comfortable. At one point, I ran out of work clothes and asked if there was a self serve laundromat nearby and their washer was actually down for service. A staff member was then beyond generous enough to not only clean them there in their commercial units but folded all of my clothes for me! I was well taken care of and would always recommend this hotel for future stays. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r501436349-Red_Lion_Inn-Aurora_Colorado.html</t>
@@ -581,6 +872,56 @@
     <t>I had a coupon and I called them about my rate. They promised me that rate which I had on coupon even the night I checked in. They charged me double. I tried to explain them but they did not care. Front desk and shuttle was ok but management is too bad. I would not recommend this. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r497317063-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>497317063</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Horrible..</t>
+  </si>
+  <si>
+    <t>Should have listened to other reviews... I essentially spent $100 bucks to get my brand new iPad stolen. Shady place. Management was no help either. On top of that the room was bad along with the whole building. Huge regret!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Should have listened to other reviews... I essentially spent $100 bucks to get my brand new iPad stolen. Shady place. Management was no help either. On top of that the room was bad along with the whole building. Huge regret!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r495417337-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>495417337</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor management skill + no customer service </t>
+  </si>
+  <si>
+    <t>Allow me to paint a picture it was May 8 when my wife and I decided we were going to stay in Aurora Colorado and we called the Lexington in order to book a room and the weather became inclement when we decided we were not going to be able to make it. I called the hotel quickly to ensure that we could cancel our reservation and was greeted with the warm welcome and very understanding response that we wouldn't have to worry about our night and that no charges will be made to our card. 
+I expressed my apologies and stated I would stay in the future the only issue was tonight wasn't a good night and again it was relayed to me that that wouldn't be an issue. 
+Two days go by and to my surprise charges have been run on my wife's card. I expressed to my wife that it must be some mistake because I got a confirmation saying the room was canceled so I made an effort to call the management team that morning and was horrified by the response I'd gotten. 
+Allow me to start by saying Levi is an awful representation of your hotel chain and if he alone is what you stand for I would never recommend anyone to stay at any red lion establishment. 
+Levi expressed that he was going back on what I was promised and do to your cancellation...Allow me to paint a picture it was May 8 when my wife and I decided we were going to stay in Aurora Colorado and we called the Lexington in order to book a room and the weather became inclement when we decided we were not going to be able to make it. I called the hotel quickly to ensure that we could cancel our reservation and was greeted with the warm welcome and very understanding response that we wouldn't have to worry about our night and that no charges will be made to our card. I expressed my apologies and stated I would stay in the future the only issue was tonight wasn't a good night and again it was relayed to me that that wouldn't be an issue. Two days go by and to my surprise charges have been run on my wife's card. I expressed to my wife that it must be some mistake because I got a confirmation saying the room was canceled so I made an effort to call the management team that morning and was horrified by the response I'd gotten. Allow me to start by saying Levi is an awful representation of your hotel chain and if he alone is what you stand for I would never recommend anyone to stay at any red lion establishment. Levi expressed that he was going back on what I was promised and do to your cancellation policy was unable to refund me I then expressed to him had i known that the night of my wife and I would've made a very different effort to get to the room so that we wouldn't be charge for nothing. He showed a lack of remorse and offered a 20% discount in the future which in no way makes up for this event. As I continue to question him he hung up on me as an act of frustration and in all my years of dealing with customer service I have never ever been hung up on by a manager. In my humble opinion he is a poor candidate from management and should not be treating his customers like this I made an attempt to reach out to the general manager Jason but he is away for the week and this cannot wait.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Allow me to paint a picture it was May 8 when my wife and I decided we were going to stay in Aurora Colorado and we called the Lexington in order to book a room and the weather became inclement when we decided we were not going to be able to make it. I called the hotel quickly to ensure that we could cancel our reservation and was greeted with the warm welcome and very understanding response that we wouldn't have to worry about our night and that no charges will be made to our card. 
+I expressed my apologies and stated I would stay in the future the only issue was tonight wasn't a good night and again it was relayed to me that that wouldn't be an issue. 
+Two days go by and to my surprise charges have been run on my wife's card. I expressed to my wife that it must be some mistake because I got a confirmation saying the room was canceled so I made an effort to call the management team that morning and was horrified by the response I'd gotten. 
+Allow me to start by saying Levi is an awful representation of your hotel chain and if he alone is what you stand for I would never recommend anyone to stay at any red lion establishment. 
+Levi expressed that he was going back on what I was promised and do to your cancellation...Allow me to paint a picture it was May 8 when my wife and I decided we were going to stay in Aurora Colorado and we called the Lexington in order to book a room and the weather became inclement when we decided we were not going to be able to make it. I called the hotel quickly to ensure that we could cancel our reservation and was greeted with the warm welcome and very understanding response that we wouldn't have to worry about our night and that no charges will be made to our card. I expressed my apologies and stated I would stay in the future the only issue was tonight wasn't a good night and again it was relayed to me that that wouldn't be an issue. Two days go by and to my surprise charges have been run on my wife's card. I expressed to my wife that it must be some mistake because I got a confirmation saying the room was canceled so I made an effort to call the management team that morning and was horrified by the response I'd gotten. Allow me to start by saying Levi is an awful representation of your hotel chain and if he alone is what you stand for I would never recommend anyone to stay at any red lion establishment. Levi expressed that he was going back on what I was promised and do to your cancellation policy was unable to refund me I then expressed to him had i known that the night of my wife and I would've made a very different effort to get to the room so that we wouldn't be charge for nothing. He showed a lack of remorse and offered a 20% discount in the future which in no way makes up for this event. As I continue to question him he hung up on me as an act of frustration and in all my years of dealing with customer service I have never ever been hung up on by a manager. In my humble opinion he is a poor candidate from management and should not be treating his customers like this I made an attempt to reach out to the general manager Jason but he is away for the week and this cannot wait.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r495139010-Red_Lion_Inn-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -617,9 +958,6 @@
     <t>Hi. We spent one night at the Lexington for the stay and ride. The clientele were kind of scary and rough. The place is dark and dingy. The front desk clerk tried very hard, was overworked and frazzled. The hotel is not clean. Sticky surfaces, our phone cord had dried food on it and we were very uncomfortable but stayed as it was late and we had a very early flight. The airport shuttle was on time and driver very nice. Our daughter drove us from airport to hotel. I am glad after reading the poor reviews of the shuttle airport pick up. I will not stay again. LindaMoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>Hi. We spent one night at the Lexington for the stay and ride. The clientele were kind of scary and rough. The place is dark and dingy. The front desk clerk tried very hard, was overworked and frazzled. The hotel is not clean. Sticky surfaces, our phone cord had dried food on it and we were very uncomfortable but stayed as it was late and we had a very early flight. The airport shuttle was on time and driver very nice. Our daughter drove us from airport to hotel. I am glad after reading the poor reviews of the shuttle airport pick up. I will not stay again. LindaMore</t>
   </si>
   <si>
@@ -638,9 +976,6 @@
     <t>So we have stayed here a few time because we use the park and ride service. The first time we stayed last year as we went on a trip to Alaska. We left our vehicle and then when we came back from our trip as soon as we got off the airplane we called for the shuttle service to pick up me and my son. We waited for the shuttle service for over 45 minutes at 3:00 in the morning. So we did use the Lexington again just a few days ago for our trip to Mexico. The night that we stayed there someone with the hotel staff was trying to wake up the person in the room next to us by banging on there door for 20 minutes. We finally opened the door and told them to stop. So we caught the shuttle to the airport and it was fine but then when we came back from our trip and called again as soon and we landed they said they would be right there to pick us up. It was pretty chilly outside and waited for 45 minutes and called them again. They said they came by and tried to call us which was not true it only took us about 8 minutes to get out of the airport. They said they would send them again and be there in a few minutes. So we continued to wait. After...So we have stayed here a few time because we use the park and ride service. The first time we stayed last year as we went on a trip to Alaska. We left our vehicle and then when we came back from our trip as soon as we got off the airplane we called for the shuttle service to pick up me and my son. We waited for the shuttle service for over 45 minutes at 3:00 in the morning. So we did use the Lexington again just a few days ago for our trip to Mexico. The night that we stayed there someone with the hotel staff was trying to wake up the person in the room next to us by banging on there door for 20 minutes. We finally opened the door and told them to stop. So we caught the shuttle to the airport and it was fine but then when we came back from our trip and called again as soon and we landed they said they would be right there to pick us up. It was pretty chilly outside and waited for 45 minutes and called them again. They said they came by and tried to call us which was not true it only took us about 8 minutes to get out of the airport. They said they would send them again and be there in a few minutes. So we continued to wait. After an hour we called the third time and they could not believe that no one had picked us up yet. Finally after waiting for an hour and a half we paid for a $40.00 taxi ride to get back to the hotel. I called and wanted a supervisor and one has not seemed to have the time to call me back. Me and my family had another trip scheduled in the next couple of weeks and you bet I canceled my rooms here and found one that can give me better service. I know because there shuttle came around 5 times in the hour and half that I got to sit and wait.MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>reginalexingtondia, Director of Sales at Red Lion Inn, responded to this reviewResponded May 6, 2017</t>
   </si>
   <si>
@@ -650,30 +985,66 @@
     <t>So we have stayed here a few time because we use the park and ride service. The first time we stayed last year as we went on a trip to Alaska. We left our vehicle and then when we came back from our trip as soon as we got off the airplane we called for the shuttle service to pick up me and my son. We waited for the shuttle service for over 45 minutes at 3:00 in the morning. So we did use the Lexington again just a few days ago for our trip to Mexico. The night that we stayed there someone with the hotel staff was trying to wake up the person in the room next to us by banging on there door for 20 minutes. We finally opened the door and told them to stop. So we caught the shuttle to the airport and it was fine but then when we came back from our trip and called again as soon and we landed they said they would be right there to pick us up. It was pretty chilly outside and waited for 45 minutes and called them again. They said they came by and tried to call us which was not true it only took us about 8 minutes to get out of the airport. They said they would send them again and be there in a few minutes. So we continued to wait. After...So we have stayed here a few time because we use the park and ride service. The first time we stayed last year as we went on a trip to Alaska. We left our vehicle and then when we came back from our trip as soon as we got off the airplane we called for the shuttle service to pick up me and my son. We waited for the shuttle service for over 45 minutes at 3:00 in the morning. So we did use the Lexington again just a few days ago for our trip to Mexico. The night that we stayed there someone with the hotel staff was trying to wake up the person in the room next to us by banging on there door for 20 minutes. We finally opened the door and told them to stop. So we caught the shuttle to the airport and it was fine but then when we came back from our trip and called again as soon and we landed they said they would be right there to pick us up. It was pretty chilly outside and waited for 45 minutes and called them again. They said they came by and tried to call us which was not true it only took us about 8 minutes to get out of the airport. They said they would send them again and be there in a few minutes. So we continued to wait. After an hour we called the third time and they could not believe that no one had picked us up yet. Finally after waiting for an hour and a half we paid for a $40.00 taxi ride to get back to the hotel. I called and wanted a supervisor and one has not seemed to have the time to call me back. Me and my family had another trip scheduled in the next couple of weeks and you bet I canceled my rooms here and found one that can give me better service. I know because there shuttle came around 5 times in the hour and half that I got to sit and wait.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r478804790-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>478804790</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>Not bad for the price you pay</t>
+  </si>
+  <si>
+    <t>The hotel itself needs some upgrades.  Everything is pretty well worn down. It met our needs for what we expected for the price.  However, next time I would spend a few more dollars and stay in a nicer hotel.  The staff were very friendly and accommodating!MoreShow less</t>
+  </si>
+  <si>
+    <t>reginalexingtondia, Manager at Red Lion Inn, responded to this reviewResponded May 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2017</t>
+  </si>
+  <si>
+    <t>The hotel itself needs some upgrades.  Everything is pretty well worn down. It met our needs for what we expected for the price.  However, next time I would spend a few more dollars and stay in a nicer hotel.  The staff were very friendly and accommodating!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r467958184-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>467958184</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>This is a high Priced Dump</t>
+  </si>
+  <si>
+    <t>Very old hotel with constant renovations, better option would be to tear it down and rebuild it! Staff were rude and wouldn't answer on the dropped WiFi or the cleanliness - walked out on day 2 and booked another!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Very old hotel with constant renovations, better option would be to tear it down and rebuild it! Staff were rude and wouldn't answer on the dropped WiFi or the cleanliness - walked out on day 2 and booked another!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r467907330-Red_Lion_Inn-Aurora_Colorado.html</t>
   </si>
   <si>
     <t>467907330</t>
   </si>
   <si>
-    <t>03/16/2017</t>
-  </si>
-  <si>
     <t>Skip this pl;ace</t>
   </si>
   <si>
     <t>We stood at the curb waiting for our airport pickup for over an hour.  It took two phone calls to get the driver! In the morning, the airport runs are once an hour and the first two occur before they open up for breakfast. If you have an early flight, you go without food.  Rooms were fine but halls were pretty noisy at midnight.MoreShow less</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
-    <t>Management response:Responded April 10, 2017</t>
-  </si>
-  <si>
-    <t>Responded April 10, 2017</t>
-  </si>
-  <si>
     <t>We stood at the curb waiting for our airport pickup for over an hour.  It took two phone calls to get the driver! In the morning, the airport runs are once an hour and the first two occur before they open up for breakfast. If you have an early flight, you go without food.  Rooms were fine but halls were pretty noisy at midnight.More</t>
   </si>
   <si>
@@ -719,6 +1090,45 @@
     <t>This hotel switched me to 3 different rooms due to 1 having a broken toilet. All 3 stunk like cigarette smoke and marijuana in non smoking rooms. Breakfast was good. Only one computer without a printer. Bed was uncomfortable and sheets were dingy and stained.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r464277193-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>464277193</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>Nice Park and fly hotel</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because of the Park and Fly package. It was the most reasonable we found. It has nice rooms and even though we left at 4 in the morning, the staff packed us a breakfast. That was a nice touch to a nice stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because of the Park and Fly package. It was the most reasonable we found. It has nice rooms and even though we left at 4 in the morning, the staff packed us a breakfast. That was a nice touch to a nice stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r463286427-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>463286427</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>Clean, Well-Run, Good Value</t>
+  </si>
+  <si>
+    <t>I stayed here last night, as a final stop before heading to the airport early in the morning. The people who worked there were friendly and professional, and my room was clean and spacious. It was not fancy, modern, or upscale, but I actually slept better than I had in a long time, and the shuttle driver promptly took me to the airport as scheduled in the morning. I wouldn't stay here for a romantic get-away, but as an inexpensive option, it's a pretty good one. I will definitely stay here again when I don't feel like spending a small fortune on a hotel room for one night.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here last night, as a final stop before heading to the airport early in the morning. The people who worked there were friendly and professional, and my room was clean and spacious. It was not fancy, modern, or upscale, but I actually slept better than I had in a long time, and the shuttle driver promptly took me to the airport as scheduled in the morning. I wouldn't stay here for a romantic get-away, but as an inexpensive option, it's a pretty good one. I will definitely stay here again when I don't feel like spending a small fortune on a hotel room for one night.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r456456201-Red_Lion_Inn-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -732,9 +1142,6 @@
   </si>
   <si>
     <t>Had an overnight layover in denver . This was one of the hotels reasonably priced and had free airport shuttle among other popular amenities. TV ok.Staff was extremely hospitable. Beds and shower were good.MoreShow less</t>
-  </si>
-  <si>
-    <t>February 2017</t>
   </si>
   <si>
     <t>Management response:Responded February 6, 2017</t>
@@ -808,6 +1215,45 @@
 Since...We've stayed here several times previously, but our most recent visit revealed a terrible drop in standards for the facility and its service.First, the front desk was not at all helpful or friendly during check in, and claimed they couldn't honor my request for a room on the top floor and away from the elevator; wrote that off to someone having a bad day and holiday travel bookings.  We found out later that the hotel was nowhere near full and the front desk gal was just being a jerk.  Next, as we approached the only elevator in the place, the cleaning staff bumped in front of us, quite purposefully, and filled the elevator with a huge cart and two employees, one jabbering away on a cell phone with not a care in the world, which forced us to stand and wait for the elevator to go up to the top floor and return.  Minor inconvenience-yes, but quite rude and totally unacceptable in a service industry.Shortly thereafter I called for a wake-up call and to double-check our airport shuttle departure time.  The front desk had completely lost our reservation and had no room on the shuttle for us, so we had to get up an hour earlier than necessary in order to have a shuttle to the airport.  This was inconceivable because our reservation was specifically for the "park and ride" option--how can anyone possibly screw that up??Since we were forced to use a room mid-hallway on the second floor, we found that noise from above floors and out in the hallway was significant.  In addition, our room heater was in disrepair and rattled like it would fall off the wall every time the fan kicked on. We tried to mitigate noise by running the bathroom fan, but it is wired directly to the light with no separate switch, so we had to keep the door shut, which negated the "white noise" affect and so we suffered through a long night of stomping, door slamming and a rattling heater fan.The final straw was breakfast.  This place used to offer a decent breakfast as part of the room rate.  Our latest experience was horrible, beginning with no coffee.  No kidding--they had no coffee available.  We inquired with the front desk, and they eventually arranged to have some made, which came out just as our shuttle bus got the "last call" to get on.  Scrambled eggs were terribly overcooked and a plethora of guests were standing around waiting for another batch to be brought out--none ever came before our shuttle left.  We ate at the airport.Bottom line, this place needs a significant management change, some employees need serious training in guest services, a maintenance crew needs to go through the rooms, and the kitchen staff should be replaced.  This was a terrible experience and I would strongly recommend travelers look elsewhere for park &amp; ride options.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r445728164-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>445728164</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>Pet friendly.  Careful, back parking lot really icy. Really good budget choice for us.</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights. 1st floor and 3rd floor. The only, and I really mean only downside to this hotel choice is that the carpet has more wear than average, but I think that's fair given they are a pet friendly hotel and the price is very competitive, so it balances.  The front desk staff was very friendly.  The breakfast was just fine.  The bed was nice and comfy and clean. We enjoyed a soak in the hot tub.  The exercise room has the essentials and was clean.  Just be aware that in a melt and freeze situation in winter the back parking lot is really icy!  Snow melts on the roof, runs down the gutters and into the back parking lot and then freezes into an ice rink.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights. 1st floor and 3rd floor. The only, and I really mean only downside to this hotel choice is that the carpet has more wear than average, but I think that's fair given they are a pet friendly hotel and the price is very competitive, so it balances.  The front desk staff was very friendly.  The breakfast was just fine.  The bed was nice and comfy and clean. We enjoyed a soak in the hot tub.  The exercise room has the essentials and was clean.  Just be aware that in a melt and freeze situation in winter the back parking lot is really icy!  Snow melts on the roof, runs down the gutters and into the back parking lot and then freezes into an ice rink.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r444918427-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>444918427</t>
+  </si>
+  <si>
+    <t>12/17/2016</t>
+  </si>
+  <si>
+    <t>So loud you can't hear yourself think</t>
+  </si>
+  <si>
+    <t>We stayed here one night prior to going to NYC.  We were on the second floor and it seems right in the middle of the freeway next door.  It was so loud it was impossible to sleep.  I guess they don't know how to use noise dampening windows.  Pay a little more to stay away from this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>We stayed here one night prior to going to NYC.  We were on the second floor and it seems right in the middle of the freeway next door.  It was so loud it was impossible to sleep.  I guess they don't know how to use noise dampening windows.  Pay a little more to stay away from this place.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r444718137-Red_Lion_Inn-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -868,6 +1314,54 @@
     <t>This was a very good value for the price. Its not fancy but it's clean and the staff was excellent. Very friendly and helpful. There is a very nice free breakfast and free airport shuttle. We drove in from the mountains the night before our flight as bad weather was coming. This hotel was very accommodating and got us right where we needed to be. Don't stay here for fun because there are no restaurants or activities really nearby but it's perfect for the airport and very affordable!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r434608369-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>434608369</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>Great location for airport</t>
+  </si>
+  <si>
+    <t>We stayed here after a long haul flight to get some sleep before a long drive. This place was really easy to find and very close to the airport. Also, right on I70 which was our route out of town. The staff directed us to a nearby Walmart as we wanted to get some food supplies for the trip. We appreciated the fridge and microwave as a minimum fuss way of having hot, healthy food without falling asleep in a restaurant.The breakfast was not bad for the US as there were food groups other than sugar! However, there weren't quite enough fresh vitamins and minerals for my desires so I supplemented it with fruit and full fat yoghurt from Walmart. One of the reasons I had picked this place was because I thought the hot tub would be good after the flight. Unfortunately it was out of order. The plug in the bath tub was missing so I used an old European trick involving a plastic bag and a wet flannel to keep enough water in for long enough to get some of the benefits.MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt W, Assistant General Manager at Red Lion Inn, responded to this reviewResponded November 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here after a long haul flight to get some sleep before a long drive. This place was really easy to find and very close to the airport. Also, right on I70 which was our route out of town. The staff directed us to a nearby Walmart as we wanted to get some food supplies for the trip. We appreciated the fridge and microwave as a minimum fuss way of having hot, healthy food without falling asleep in a restaurant.The breakfast was not bad for the US as there were food groups other than sugar! However, there weren't quite enough fresh vitamins and minerals for my desires so I supplemented it with fruit and full fat yoghurt from Walmart. One of the reasons I had picked this place was because I thought the hot tub would be good after the flight. Unfortunately it was out of order. The plug in the bath tub was missing so I used an old European trick involving a plastic bag and a wet flannel to keep enough water in for long enough to get some of the benefits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r432688830-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>432688830</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t>Everything we needed for an overnight stay</t>
+  </si>
+  <si>
+    <t>We had a very good experience with this hotel and its services. We called for a van ride from the 40th St Station of the local transit and were picked up quickly. The van driver brought all our luggage from a two week trek through the National Parks into the lobby on their cart. Check in was quick and friendly.  They turned on the pool lights for us even though it was 9 pm and we had a relaxing swim and hot tub.  Both the pool and hot tub were clean and in good working order, with a stack of pool towels on the shelf. The room was clean, the bed comfortable, the shower had good pressure;  the refrigerator had an ice box to refreeze our "blue ice" -- which the place we'd stayed the night before at a higher rate and type of hotel did not have.  There were enough electric outlets to plug in our stuff without using our extension cords.  This has also been a problem elsewhere.  Breakfast was eggs (which were chilly by the time we got there at the end of breakfast,) sausage, cereals, waffles, yogurt, breads, muffins, fruit, etc.  The free wifi worked well. We printed boarding passes on the hotels computer and printer, both of which worked fine.  Our van ride to the airport the next morning worked fine.  Yes, the wall paper in the bathroom is in need of some repair, the...We had a very good experience with this hotel and its services. We called for a van ride from the 40th St Station of the local transit and were picked up quickly. The van driver brought all our luggage from a two week trek through the National Parks into the lobby on their cart. Check in was quick and friendly.  They turned on the pool lights for us even though it was 9 pm and we had a relaxing swim and hot tub.  Both the pool and hot tub were clean and in good working order, with a stack of pool towels on the shelf. The room was clean, the bed comfortable, the shower had good pressure;  the refrigerator had an ice box to refreeze our "blue ice" -- which the place we'd stayed the night before at a higher rate and type of hotel did not have.  There were enough electric outlets to plug in our stuff without using our extension cords.  This has also been a problem elsewhere.  Breakfast was eggs (which were chilly by the time we got there at the end of breakfast,) sausage, cereals, waffles, yogurt, breads, muffins, fruit, etc.  The free wifi worked well. We printed boarding passes on the hotels computer and printer, both of which worked fine.  Our van ride to the airport the next morning worked fine.  Yes, the wall paper in the bathroom is in need of some repair, the edges were coming loose in two places, the hallway is uninteresting, the elevator undecorated and I would have liked an ice machine on the 3rd floor.  But overall, the Lexington Inn served us very well.  I gather that it used to be under different ownership, but the new owners have improved things greatly from the old reviews. The hotel isn't near much, but there is a McDonald's and a 24 hour Denny's within reasonable walking distance (4 or 5 long blocks?) (or you probably have a car with you -- we came on the train.)MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt W, Assistant GM at Red Lion Inn, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>We had a very good experience with this hotel and its services. We called for a van ride from the 40th St Station of the local transit and were picked up quickly. The van driver brought all our luggage from a two week trek through the National Parks into the lobby on their cart. Check in was quick and friendly.  They turned on the pool lights for us even though it was 9 pm and we had a relaxing swim and hot tub.  Both the pool and hot tub were clean and in good working order, with a stack of pool towels on the shelf. The room was clean, the bed comfortable, the shower had good pressure;  the refrigerator had an ice box to refreeze our "blue ice" -- which the place we'd stayed the night before at a higher rate and type of hotel did not have.  There were enough electric outlets to plug in our stuff without using our extension cords.  This has also been a problem elsewhere.  Breakfast was eggs (which were chilly by the time we got there at the end of breakfast,) sausage, cereals, waffles, yogurt, breads, muffins, fruit, etc.  The free wifi worked well. We printed boarding passes on the hotels computer and printer, both of which worked fine.  Our van ride to the airport the next morning worked fine.  Yes, the wall paper in the bathroom is in need of some repair, the...We had a very good experience with this hotel and its services. We called for a van ride from the 40th St Station of the local transit and were picked up quickly. The van driver brought all our luggage from a two week trek through the National Parks into the lobby on their cart. Check in was quick and friendly.  They turned on the pool lights for us even though it was 9 pm and we had a relaxing swim and hot tub.  Both the pool and hot tub were clean and in good working order, with a stack of pool towels on the shelf. The room was clean, the bed comfortable, the shower had good pressure;  the refrigerator had an ice box to refreeze our "blue ice" -- which the place we'd stayed the night before at a higher rate and type of hotel did not have.  There were enough electric outlets to plug in our stuff without using our extension cords.  This has also been a problem elsewhere.  Breakfast was eggs (which were chilly by the time we got there at the end of breakfast,) sausage, cereals, waffles, yogurt, breads, muffins, fruit, etc.  The free wifi worked well. We printed boarding passes on the hotels computer and printer, both of which worked fine.  Our van ride to the airport the next morning worked fine.  Yes, the wall paper in the bathroom is in need of some repair, the edges were coming loose in two places, the hallway is uninteresting, the elevator undecorated and I would have liked an ice machine on the 3rd floor.  But overall, the Lexington Inn served us very well.  I gather that it used to be under different ownership, but the new owners have improved things greatly from the old reviews. The hotel isn't near much, but there is a McDonald's and a 24 hour Denny's within reasonable walking distance (4 or 5 long blocks?) (or you probably have a car with you -- we came on the train.)More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r432545688-Red_Lion_Inn-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -883,15 +1377,6 @@
     <t>Mixed feelings about our stay here.  The bed was comfortable (king) but room was rather shabby.  It did have a mini frig and microwave which is nice. We learned that the hotel is under new ownership and renovations and cleaning underway. Much more needs addressing.  Hall carpet clean but stairwell carpet was absolutely filthy.   Breakfast just okay but adequate.   They offer a free airport shuttle once an hour on the hour and have 2 shuttles if there's a large number of riders.   Until they finish improvements I suggest checking out other airport hotels.  It was expensive for what was offered. MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>Matt W, Assistant GM at Red Lion Inn, responded to this reviewResponded October 31, 2016</t>
-  </si>
-  <si>
-    <t>Responded October 31, 2016</t>
-  </si>
-  <si>
     <t>Mixed feelings about our stay here.  The bed was comfortable (king) but room was rather shabby.  It did have a mini frig and microwave which is nice. We learned that the hotel is under new ownership and renovations and cleaning underway. Much more needs addressing.  Hall carpet clean but stairwell carpet was absolutely filthy.   Breakfast just okay but adequate.   They offer a free airport shuttle once an hour on the hour and have 2 shuttles if there's a large number of riders.   Until they finish improvements I suggest checking out other airport hotels.  It was expensive for what was offered. More</t>
   </si>
   <si>
@@ -934,6 +1419,57 @@
     <t>We stayed here on a road trip and had been "guaranteed" a roll in shower for my husband who is a paraplegic. When we arrived they put us in a regular room that he could barely get to a bed. We asked the man at the front desk if he knew of our reservation to which he answered "yes, and I saw the request in the notes, but I gave that room away". No apologies, no trying to help us. Just plain rude. Rooms are not well maintained and the "heated" pool was far from that.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r422067649-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>422067649</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay </t>
+  </si>
+  <si>
+    <t>Recently stayed at this hotel prior to vacation. It was great. Clean and quiet. Staff were very helpful. The shuttle service was great. Overall we really enjoyed our stay. Room was comfortable. We most definitely would stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Matt W, Assistant General Manager at Red Lion Inn, responded to this reviewResponded October 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2016</t>
+  </si>
+  <si>
+    <t>Recently stayed at this hotel prior to vacation. It was great. Clean and quiet. Staff were very helpful. The shuttle service was great. Overall we really enjoyed our stay. Room was comfortable. We most definitely would stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r416319657-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>416319657</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>No problems with this hotel!</t>
+  </si>
+  <si>
+    <t>Booked this hotel because it had the best deal for Park/Sleep/Fly.  There was plenty of parking, very friendly people at check-in, nice clean room, comfy bed with lots of pillows, and a nice breakfast.  Had to sign up for specific time for shuttle and that worked perfectly - got to the airport in excellent time.  On our return, as soon as we had our bags, we called the hotel and the shuttle came pretty quickly and delivered us right to our car.  The driver was great!  I understand it is under new ownership and they are in the process of making improvements.  We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt W, Assistant General Manager at Red Lion Inn, responded to this reviewResponded September 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2016</t>
+  </si>
+  <si>
+    <t>Booked this hotel because it had the best deal for Park/Sleep/Fly.  There was plenty of parking, very friendly people at check-in, nice clean room, comfy bed with lots of pillows, and a nice breakfast.  Had to sign up for specific time for shuttle and that worked perfectly - got to the airport in excellent time.  On our return, as soon as we had our bags, we called the hotel and the shuttle came pretty quickly and delivered us right to our car.  The driver was great!  I understand it is under new ownership and they are in the process of making improvements.  We would stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r414729244-Red_Lion_Inn-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -949,15 +1485,6 @@
     <t>Hotel isn't terrible but for the price and with so many options close by that are comparably priced you would be wise to spend your money on other hotels in this area. The staff is friendly but you can tell guest are not their highest priority. Only one coin operated washer and dryer and both were out of order. M&amp;M on the floor in my room so I can be sure it was not vacuumed or at least thoroughly vacuumed. It is obvious that ownership is not investing in maintaining property properly. Many other hotels in this price range are much better. No restaurants other than McDs and a Dennys within walking distance.MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
-    <t>Matt W, Assistant General Manager at Red Lion Inn, responded to this reviewResponded September 9, 2016</t>
-  </si>
-  <si>
-    <t>Responded September 9, 2016</t>
-  </si>
-  <si>
     <t>Hotel isn't terrible but for the price and with so many options close by that are comparably priced you would be wise to spend your money on other hotels in this area. The staff is friendly but you can tell guest are not their highest priority. Only one coin operated washer and dryer and both were out of order. M&amp;M on the floor in my room so I can be sure it was not vacuumed or at least thoroughly vacuumed. It is obvious that ownership is not investing in maintaining property properly. Many other hotels in this price range are much better. No restaurants other than McDs and a Dennys within walking distance.More</t>
   </si>
   <si>
@@ -1006,6 +1533,54 @@
     <t>The hotel was convenient to the airport and Denver; although, it was difficult to find. My son and I were taking a break together between his Summer camps and I was looking for a hotel big enough for us but not too expensive. The Lexington was okay, but more expensive than I thought it should be.  I found the staff to be nice. The breakfasts were okay. The beds were not very firm, but okay. The room was clean and everything worked, but it was a bit worn. Overall, just average to me.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r404618634-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>404618634</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>Ok but not great</t>
+  </si>
+  <si>
+    <t>The carpets in the hallways were filthy and the room was not much better. The first stock of towels in the bathroom had one that was not clean. Otherwise, the bathroom and the beds were clean, but I expected better for the price we paid. We could see that the staff was working on cleaning carpets and things, but in our room, we did not feel that we could walk without shoes because of the carpet condition. It should have been cleaned before that room was rented again. Had the clerk not charged my credit card for the entire amount upon check-in, we would have left to find a cleaner hotel, but I figured obtaining a refund would likely not be easy. The staff were friendly and helpful. The location was convenient for where we needed to go during our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt W, Assistant General Manager at Red Lion Inn, responded to this reviewResponded August 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2016</t>
+  </si>
+  <si>
+    <t>The carpets in the hallways were filthy and the room was not much better. The first stock of towels in the bathroom had one that was not clean. Otherwise, the bathroom and the beds were clean, but I expected better for the price we paid. We could see that the staff was working on cleaning carpets and things, but in our room, we did not feel that we could walk without shoes because of the carpet condition. It should have been cleaned before that room was rented again. Had the clerk not charged my credit card for the entire amount upon check-in, we would have left to find a cleaner hotel, but I figured obtaining a refund would likely not be easy. The staff were friendly and helpful. The location was convenient for where we needed to go during our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r402409942-Red_Lion_Inn-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>402409942</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t>clean room.. friendly staff..worked well for us</t>
+  </si>
+  <si>
+    <t>We booked this hotel so we could park our car their during our 12 day vacation. I was kinda of nervous because of some of the reviews. I am now not sure what the bad reviews were all about. We found the room was clean, the beds were comfortable and the staff was very friendly.We caught the 4a.m. shuttle to the airport the shuttle driver had coffee made and waiting for us.I believe the front desk clerk name was Levi(I wrote it down and now I can't find it) was helpful and friendly. When we arrived back in Denver 12 days later we just called the hotel and they sent us a shuttle back to hotel very quickly.I had no problems and would definitely stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt W, Assistant General Manager at Red Lion Inn, responded to this reviewResponded August 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2016</t>
+  </si>
+  <si>
+    <t>We booked this hotel so we could park our car their during our 12 day vacation. I was kinda of nervous because of some of the reviews. I am now not sure what the bad reviews were all about. We found the room was clean, the beds were comfortable and the staff was very friendly.We caught the 4a.m. shuttle to the airport the shuttle driver had coffee made and waiting for us.I believe the front desk clerk name was Levi(I wrote it down and now I can't find it) was helpful and friendly. When we arrived back in Denver 12 days later we just called the hotel and they sent us a shuttle back to hotel very quickly.I had no problems and would definitely stay there again!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d1117951-r401878947-Red_Lion_Inn-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -1019,12 +1594,6 @@
   </si>
   <si>
     <t>The Lexington was better than expected. I found all staff to be very helpful. The beds were very comfortable. The room was spotless as was the rest of the hotel. Its also nice to have airport transportation, however a car would be helpful as it is a lot of flat land. I would certainly return.MoreShow less</t>
-  </si>
-  <si>
-    <t>Matt W, Assistant General Manager at Red Lion Inn, responded to this reviewResponded August 9, 2016</t>
-  </si>
-  <si>
-    <t>Responded August 9, 2016</t>
   </si>
   <si>
     <t>The Lexington was better than expected. I found all staff to be very helpful. The beds were very comfortable. The room was spotless as was the rest of the hotel. Its also nice to have airport transportation, however a car would be helpful as it is a lot of flat land. I would certainly return.More</t>
@@ -1580,7 +2149,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1597,14 +2166,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1620,34 +2185,34 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1658,14 +2223,10 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +2242,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1690,43 +2251,45 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>62</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
         <v>63</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1742,7 +2305,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1751,22 +2314,22 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="O5" t="s">
         <v>52</v>
@@ -1781,13 +2344,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1803,7 +2366,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1812,43 +2375,49 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="X6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1864,7 +2433,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1873,25 +2442,25 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1903,13 +2472,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -1925,7 +2494,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1934,47 +2503,43 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>86</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X8" t="s">
         <v>95</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>96</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -1990,7 +2555,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1999,25 +2564,25 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2029,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>94</v>
+      </c>
+      <c r="X9" t="s">
         <v>95</v>
       </c>
-      <c r="X9" t="s">
-        <v>96</v>
-      </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
@@ -2051,7 +2616,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2060,25 +2625,25 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2090,13 +2655,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="X10" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
@@ -2112,7 +2677,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2121,49 +2686,43 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="X11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -2179,7 +2738,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2188,25 +2747,25 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2218,13 +2777,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y12" t="s">
         <v>123</v>
-      </c>
-      <c r="X12" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="13">
@@ -2240,7 +2799,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2249,49 +2808,43 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="O13" t="s">
-        <v>94</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>2</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="X13" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
@@ -2307,7 +2860,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2316,49 +2869,43 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>148</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="X14" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="Y14" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
@@ -2374,7 +2921,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2383,47 +2930,47 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="O15" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="X15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Y15" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
@@ -2439,7 +2986,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2448,43 +2995,49 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O16" t="s">
-        <v>86</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="X16" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="Y16" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
@@ -2500,7 +3053,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2509,43 +3062,47 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="O17" t="s">
-        <v>86</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="X17" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="Y17" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
@@ -2561,7 +3118,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2570,47 +3127,43 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="J18" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="O18" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="X18" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19">
@@ -2626,7 +3179,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2635,25 +3188,25 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J19" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="K19" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2665,13 +3218,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="X19" t="s">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
@@ -2687,7 +3240,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2696,43 +3249,49 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="O20" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
       <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="X20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Y20" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
@@ -2748,7 +3307,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2757,47 +3316,43 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="O21" t="s">
-        <v>94</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>2</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="X21" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Y21" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22">
@@ -2813,7 +3368,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2822,49 +3377,49 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="J22" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="K22" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="L22" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="O22" t="s">
-        <v>86</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>2</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="X22" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="Y22" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23">
@@ -2880,7 +3435,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2889,47 +3444,43 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="J23" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="K23" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="O23" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>2</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="X23" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="Y23" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24">
@@ -2945,7 +3496,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2954,43 +3505,49 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="J24" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="O24" t="s">
-        <v>86</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="X24" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="Y24" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25">
@@ -3006,7 +3563,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3015,43 +3572,47 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="J25" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="O25" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="X25" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="Y25" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26">
@@ -3067,7 +3628,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3076,43 +3637,47 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="J26" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="X26" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="Y26" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27">
@@ -3128,7 +3693,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3137,43 +3702,49 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="J27" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="K27" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="O27" t="s">
-        <v>86</v>
-      </c>
-      <c r="P27" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="X27" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="Y27" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28">
@@ -3189,7 +3760,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3198,49 +3769,47 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="J28" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="K28" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="O28" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q28" t="s"/>
       <c r="R28" t="n">
         <v>4</v>
       </c>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="X28" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="Y28" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29">
@@ -3256,7 +3825,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3265,47 +3834,43 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="J29" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="K29" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="L29" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="O29" t="s">
-        <v>94</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>3</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="X29" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="Y29" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30">
@@ -3321,7 +3886,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3330,39 +3895,49 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="J30" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="K30" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
-      </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
-      <c r="P30" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>231</v>
+      </c>
+      <c r="O30" t="s">
+        <v>188</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
       <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="X30" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Y30" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31">
@@ -3378,7 +3953,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3387,25 +3962,25 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="J31" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="K31" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="O31" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3417,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="X31" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="Y31" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32">
@@ -3439,7 +4014,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3448,25 +4023,25 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="J32" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="K32" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="L32" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="O32" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3478,13 +4053,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="X32" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="Y32" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
@@ -3500,7 +4075,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3509,43 +4084,47 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="J33" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="K33" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="L33" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="O33" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="X33" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="Y33" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34">
@@ -3561,7 +4140,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3570,25 +4149,25 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="J34" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="K34" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="O34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3600,13 +4179,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="X34" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Y34" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35">
@@ -3622,7 +4201,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -3631,49 +4210,43 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="J35" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="K35" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="L35" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="O35" t="s">
-        <v>132</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
-      <c r="S35" t="n">
-        <v>3</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>3</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="X35" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="Y35" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36">
@@ -3689,7 +4262,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -3698,25 +4271,25 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="J36" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="K36" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O36" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3728,13 +4301,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="X36" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="Y36" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37">
@@ -3750,7 +4323,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -3759,49 +4332,43 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="J37" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="K37" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="L37" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="O37" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3</v>
-      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>3</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="X37" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="Y37" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38">
@@ -3817,7 +4384,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -3826,22 +4393,22 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="J38" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="K38" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="L38" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O38" t="s">
         <v>52</v>
@@ -3854,19 +4421,19 @@
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="X38" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="Y38" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39">
@@ -3882,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -3891,43 +4458,1892 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="J39" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="K39" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="O39" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
+        <v>316</v>
+      </c>
+      <c r="X39" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>319</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>320</v>
+      </c>
+      <c r="J40" t="s">
+        <v>321</v>
+      </c>
+      <c r="K40" t="s">
+        <v>322</v>
+      </c>
+      <c r="L40" t="s">
+        <v>323</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>289</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>324</v>
+      </c>
+      <c r="X40" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>327</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>328</v>
+      </c>
+      <c r="J41" t="s">
+        <v>329</v>
+      </c>
+      <c r="K41" t="s">
+        <v>330</v>
+      </c>
+      <c r="L41" t="s">
         <v>331</v>
       </c>
-      <c r="X39" t="s">
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>260</v>
+      </c>
+      <c r="O41" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
         <v>332</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="X41" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>335</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>336</v>
+      </c>
+      <c r="J42" t="s">
+        <v>329</v>
+      </c>
+      <c r="K42" t="s">
+        <v>337</v>
+      </c>
+      <c r="L42" t="s">
+        <v>338</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>260</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>332</v>
+      </c>
+      <c r="X42" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y42" t="s">
         <v>339</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>340</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>341</v>
+      </c>
+      <c r="J43" t="s">
+        <v>342</v>
+      </c>
+      <c r="K43" t="s">
+        <v>343</v>
+      </c>
+      <c r="L43" t="s">
+        <v>344</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>260</v>
+      </c>
+      <c r="O43" t="s">
+        <v>59</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>332</v>
+      </c>
+      <c r="X43" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>346</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>347</v>
+      </c>
+      <c r="J44" t="s">
+        <v>348</v>
+      </c>
+      <c r="K44" t="s">
+        <v>349</v>
+      </c>
+      <c r="L44" t="s">
+        <v>350</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>260</v>
+      </c>
+      <c r="O44" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>351</v>
+      </c>
+      <c r="X44" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>354</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>355</v>
+      </c>
+      <c r="J45" t="s">
+        <v>356</v>
+      </c>
+      <c r="K45" t="s">
+        <v>357</v>
+      </c>
+      <c r="L45" t="s">
+        <v>358</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>359</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>351</v>
+      </c>
+      <c r="X45" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>361</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>362</v>
+      </c>
+      <c r="J46" t="s">
+        <v>363</v>
+      </c>
+      <c r="K46" t="s">
+        <v>364</v>
+      </c>
+      <c r="L46" t="s">
+        <v>365</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>359</v>
+      </c>
+      <c r="O46" t="s">
+        <v>84</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>351</v>
+      </c>
+      <c r="X46" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>367</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>368</v>
+      </c>
+      <c r="J47" t="s">
+        <v>369</v>
+      </c>
+      <c r="K47" t="s">
+        <v>370</v>
+      </c>
+      <c r="L47" t="s">
+        <v>371</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>359</v>
+      </c>
+      <c r="O47" t="s">
+        <v>84</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>372</v>
+      </c>
+      <c r="X47" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>375</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>376</v>
+      </c>
+      <c r="J48" t="s">
+        <v>377</v>
+      </c>
+      <c r="K48" t="s">
+        <v>378</v>
+      </c>
+      <c r="L48" t="s">
+        <v>379</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>380</v>
+      </c>
+      <c r="O48" t="s">
+        <v>59</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>381</v>
+      </c>
+      <c r="X48" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>384</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>385</v>
+      </c>
+      <c r="J49" t="s">
+        <v>386</v>
+      </c>
+      <c r="K49" t="s">
+        <v>387</v>
+      </c>
+      <c r="L49" t="s">
+        <v>388</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>389</v>
+      </c>
+      <c r="O49" t="s">
+        <v>59</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>390</v>
+      </c>
+      <c r="X49" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>393</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>394</v>
+      </c>
+      <c r="J50" t="s">
+        <v>395</v>
+      </c>
+      <c r="K50" t="s">
+        <v>396</v>
+      </c>
+      <c r="L50" t="s">
+        <v>397</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>389</v>
+      </c>
+      <c r="O50" t="s">
+        <v>59</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>390</v>
+      </c>
+      <c r="X50" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>399</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>400</v>
+      </c>
+      <c r="J51" t="s">
+        <v>401</v>
+      </c>
+      <c r="K51" t="s">
+        <v>402</v>
+      </c>
+      <c r="L51" t="s">
+        <v>403</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>404</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>390</v>
+      </c>
+      <c r="X51" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>406</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>407</v>
+      </c>
+      <c r="J52" t="s">
+        <v>408</v>
+      </c>
+      <c r="K52" t="s">
+        <v>409</v>
+      </c>
+      <c r="L52" t="s">
+        <v>410</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>389</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>390</v>
+      </c>
+      <c r="X52" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>412</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>413</v>
+      </c>
+      <c r="J53" t="s">
+        <v>414</v>
+      </c>
+      <c r="K53" t="s">
+        <v>415</v>
+      </c>
+      <c r="L53" t="s">
+        <v>416</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>390</v>
+      </c>
+      <c r="X53" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>418</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>419</v>
+      </c>
+      <c r="J54" t="s">
+        <v>420</v>
+      </c>
+      <c r="K54" t="s">
+        <v>421</v>
+      </c>
+      <c r="L54" t="s">
+        <v>422</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>389</v>
+      </c>
+      <c r="O54" t="s">
+        <v>188</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>423</v>
+      </c>
+      <c r="X54" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>426</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>427</v>
+      </c>
+      <c r="J55" t="s">
+        <v>428</v>
+      </c>
+      <c r="K55" t="s">
+        <v>429</v>
+      </c>
+      <c r="L55" t="s">
+        <v>430</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>404</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>431</v>
+      </c>
+      <c r="X55" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>434</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>435</v>
+      </c>
+      <c r="J56" t="s">
+        <v>436</v>
+      </c>
+      <c r="K56" t="s">
+        <v>437</v>
+      </c>
+      <c r="L56" t="s">
+        <v>438</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>404</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>439</v>
+      </c>
+      <c r="X56" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>442</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>443</v>
+      </c>
+      <c r="J57" t="s">
+        <v>444</v>
+      </c>
+      <c r="K57" t="s">
+        <v>445</v>
+      </c>
+      <c r="L57" t="s">
+        <v>446</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>404</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>439</v>
+      </c>
+      <c r="X57" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>448</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>449</v>
+      </c>
+      <c r="J58" t="s">
+        <v>450</v>
+      </c>
+      <c r="K58" t="s">
+        <v>451</v>
+      </c>
+      <c r="L58" t="s">
+        <v>452</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>453</v>
+      </c>
+      <c r="O58" t="s">
+        <v>59</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>439</v>
+      </c>
+      <c r="X58" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>455</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>456</v>
+      </c>
+      <c r="J59" t="s">
+        <v>457</v>
+      </c>
+      <c r="K59" t="s">
+        <v>458</v>
+      </c>
+      <c r="L59" t="s">
+        <v>459</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>404</v>
+      </c>
+      <c r="O59" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>439</v>
+      </c>
+      <c r="X59" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>461</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>462</v>
+      </c>
+      <c r="J60" t="s">
+        <v>463</v>
+      </c>
+      <c r="K60" t="s">
+        <v>464</v>
+      </c>
+      <c r="L60" t="s">
+        <v>465</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>466</v>
+      </c>
+      <c r="O60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>467</v>
+      </c>
+      <c r="X60" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>470</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>471</v>
+      </c>
+      <c r="J61" t="s">
+        <v>472</v>
+      </c>
+      <c r="K61" t="s">
+        <v>473</v>
+      </c>
+      <c r="L61" t="s">
+        <v>474</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>453</v>
+      </c>
+      <c r="O61" t="s">
+        <v>52</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>475</v>
+      </c>
+      <c r="X61" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>478</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>479</v>
+      </c>
+      <c r="J62" t="s">
+        <v>480</v>
+      </c>
+      <c r="K62" t="s">
+        <v>481</v>
+      </c>
+      <c r="L62" t="s">
+        <v>482</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>466</v>
+      </c>
+      <c r="O62" t="s">
+        <v>144</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>475</v>
+      </c>
+      <c r="X62" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>484</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>485</v>
+      </c>
+      <c r="J63" t="s">
+        <v>486</v>
+      </c>
+      <c r="K63" t="s">
+        <v>487</v>
+      </c>
+      <c r="L63" t="s">
+        <v>488</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>453</v>
+      </c>
+      <c r="O63" t="s">
+        <v>84</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>489</v>
+      </c>
+      <c r="X63" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>492</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>493</v>
+      </c>
+      <c r="J64" t="s">
+        <v>494</v>
+      </c>
+      <c r="K64" t="s">
+        <v>495</v>
+      </c>
+      <c r="L64" t="s">
+        <v>496</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>497</v>
+      </c>
+      <c r="O64" t="s">
+        <v>59</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>489</v>
+      </c>
+      <c r="X64" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>499</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>500</v>
+      </c>
+      <c r="J65" t="s">
+        <v>501</v>
+      </c>
+      <c r="K65" t="s">
+        <v>502</v>
+      </c>
+      <c r="L65" t="s">
+        <v>503</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>453</v>
+      </c>
+      <c r="O65" t="s">
+        <v>144</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>504</v>
+      </c>
+      <c r="X65" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>507</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>508</v>
+      </c>
+      <c r="J66" t="s">
+        <v>509</v>
+      </c>
+      <c r="K66" t="s">
+        <v>510</v>
+      </c>
+      <c r="L66" t="s">
+        <v>511</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>497</v>
+      </c>
+      <c r="O66" t="s">
+        <v>59</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>512</v>
+      </c>
+      <c r="X66" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>515</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>516</v>
+      </c>
+      <c r="J67" t="s">
+        <v>517</v>
+      </c>
+      <c r="K67" t="s">
+        <v>518</v>
+      </c>
+      <c r="L67" t="s">
+        <v>519</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>453</v>
+      </c>
+      <c r="O67" t="s">
+        <v>84</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>512</v>
+      </c>
+      <c r="X67" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>33849</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>521</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>522</v>
+      </c>
+      <c r="J68" t="s">
+        <v>523</v>
+      </c>
+      <c r="K68" t="s">
+        <v>524</v>
+      </c>
+      <c r="L68" t="s">
+        <v>525</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>497</v>
+      </c>
+      <c r="O68" t="s">
+        <v>59</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>512</v>
+      </c>
+      <c r="X68" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>
